--- a/Tg_model.xlsx
+++ b/Tg_model.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11113"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gayeonkim/PycharmProjects/PCM/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA23E32C-C4EF-C443-8A9E-FF7E58D9EAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1545" windowWidth="14355" windowHeight="4635" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uncured" sheetId="1" r:id="rId1"/>
@@ -40,13 +46,23 @@
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="uncured" localSheetId="0">Uncured!$A$1:$P$655</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="uncured" type="6" refreshedVersion="4" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="uncured" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr sourceFile="Z:\Giacomo\My_research\Post_doc\PULL_AERO\Material_characterisation\4%_XU3508\Tg_measuraments\Tg_May_2015\uncured.txt" space="1" consecutive="1">
       <textFields count="2">
         <textField/>
@@ -621,7 +637,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -651,13 +667,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,14 +683,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4131,6 +4149,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9502-CD48-A962-0936C59EE411}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4192,9 +4215,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7653,6 +7676,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4486-354F-947A-C95ABAA09AFB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -10010,6 +10038,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4486-354F-947A-C95ABAA09AFB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -12103,6 +12136,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4486-354F-947A-C95ABAA09AFB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -15210,6 +15248,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4486-354F-947A-C95ABAA09AFB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -17633,6 +17676,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4486-354F-947A-C95ABAA09AFB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -20962,6 +21010,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4486-354F-947A-C95ABAA09AFB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -23949,6 +24002,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4486-354F-947A-C95ABAA09AFB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -26936,6 +26994,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4486-354F-947A-C95ABAA09AFB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -31168,6 +31231,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-4486-354F-947A-C95ABAA09AFB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -31229,9 +31297,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -31350,6 +31418,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0960-1F46-9749-2F3481D69C56}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -31583,6 +31656,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0960-1F46-9749-2F3481D69C56}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -31625,7 +31703,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -31642,7 +31719,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="248659328"/>
@@ -31680,7 +31757,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -31697,7 +31773,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="248657408"/>
@@ -31733,7 +31809,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -31755,9 +31831,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -31770,7 +31846,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11789244570858237"/>
+          <c:y val="7.2426752630386476E-2"/>
+          <c:w val="0.83912790623512079"/>
+          <c:h val="0.78467916638511159"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -31876,6 +31962,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4662-0444-8C91-E17BE6E855F8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -32109,6 +32200,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4662-0444-8C91-E17BE6E855F8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -32173,6 +32269,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4662-0444-8C91-E17BE6E855F8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -32215,7 +32316,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -32232,7 +32332,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="248744960"/>
@@ -32270,7 +32370,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -32287,7 +32386,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="248742656"/>
@@ -32323,7 +32422,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -32361,7 +32460,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -32393,7 +32498,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -32418,19 +32529,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>69849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>147638</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>111919</xdr:rowOff>
+      <xdr:colOff>211138</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>10319</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -32447,20 +32564,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>388145</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>92870</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>527845</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>42070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>273051</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -32481,7 +32604,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="uncured" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="uncured" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -32527,7 +32650,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -32560,9 +32683,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -32595,6 +32735,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -32770,7 +32927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P655"/>
   <sheetViews>
@@ -32778,15 +32935,15 @@
       <selection activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="12" bestFit="1" customWidth="1"/>
@@ -32794,12 +32951,12 @@
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -32807,7 +32964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -32815,7 +32972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -32823,7 +32980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -32831,7 +32988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -32839,7 +32996,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -32859,7 +33016,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -32879,7 +33036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -32887,7 +33044,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -32895,7 +33052,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -32906,7 +33063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -32914,7 +33071,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -32925,7 +33082,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -32936,7 +33093,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -32947,7 +33104,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -32958,7 +33115,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -32972,7 +33129,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -32989,7 +33146,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -33006,12 +33163,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -33019,7 +33176,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -33027,7 +33184,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -33035,7 +33192,7 @@
         <v>1.0378000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -33049,7 +33206,7 @@
         <v>1.0289999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -33063,7 +33220,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -33071,7 +33228,7 @@
         <v>-28.0105</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -33088,7 +33245,7 @@
         <v>156.6</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -33102,7 +33259,7 @@
         <v>2.1854</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -33116,7 +33273,7 @@
         <v>0.43880000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -33133,7 +33290,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -33144,7 +33301,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -33155,7 +33312,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -33172,7 +33329,7 @@
         <v>0.75525462962962964</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -33204,7 +33361,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -33224,7 +33381,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -33244,7 +33401,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -33252,7 +33409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -33266,7 +33423,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -33284,7 +33441,7 @@
         <v>0.38209490740740742</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>89</v>
       </c>
@@ -33307,7 +33464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>94</v>
       </c>
@@ -33315,7 +33472,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -33326,7 +33483,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>98</v>
       </c>
@@ -33343,7 +33500,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>102</v>
       </c>
@@ -33351,7 +33508,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>104</v>
       </c>
@@ -33359,12 +33516,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>106</v>
       </c>
@@ -33372,7 +33529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -33383,7 +33540,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>109</v>
       </c>
@@ -33394,7 +33551,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>112</v>
       </c>
@@ -33408,7 +33565,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>115</v>
       </c>
@@ -33422,7 +33579,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>118</v>
       </c>
@@ -33436,7 +33593,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>120</v>
       </c>
@@ -33450,7 +33607,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>121</v>
       </c>
@@ -33467,7 +33624,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>122</v>
       </c>
@@ -33484,7 +33641,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>123</v>
       </c>
@@ -33498,7 +33655,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>125</v>
       </c>
@@ -33515,7 +33672,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>126</v>
       </c>
@@ -33532,7 +33689,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>129</v>
       </c>
@@ -33546,7 +33703,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>130</v>
       </c>
@@ -33563,7 +33720,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>131</v>
       </c>
@@ -33580,7 +33737,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>135</v>
       </c>
@@ -33597,7 +33754,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>88</v>
       </c>
@@ -33605,7 +33762,7 @@
         <v>42132</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -33613,7 +33770,7 @@
         <v>0.70899305555555558</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>138</v>
       </c>
@@ -33633,7 +33790,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>138</v>
       </c>
@@ -33662,7 +33819,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>138</v>
       </c>
@@ -33688,7 +33845,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>145</v>
       </c>
@@ -33696,12 +33853,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>9.2166659999999997E-2</v>
       </c>
@@ -33752,7 +33909,7 @@
         <v>50.000100000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.1921667</v>
       </c>
@@ -33803,7 +33960,7 @@
         <v>50.000920000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.2921667</v>
       </c>
@@ -33854,7 +34011,7 @@
         <v>50.037179999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.39216669999999998</v>
       </c>
@@ -33905,7 +34062,7 @@
         <v>49.995399999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.49216670000000001</v>
       </c>
@@ -33956,7 +34113,7 @@
         <v>50.001249999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.59216679999999999</v>
       </c>
@@ -34007,7 +34164,7 @@
         <v>49.993980000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.69216679999999997</v>
       </c>
@@ -34058,7 +34215,7 @@
         <v>50.005400000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.79216679999999995</v>
       </c>
@@ -34109,7 +34266,7 @@
         <v>49.993279999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.89216680000000004</v>
       </c>
@@ -34160,7 +34317,7 @@
         <v>50.006889999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.99216660000000001</v>
       </c>
@@ -34211,7 +34368,7 @@
         <v>49.99586</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1.0921670000000001</v>
       </c>
@@ -34262,7 +34419,7 @@
         <v>49.996479999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1.192167</v>
       </c>
@@ -34313,7 +34470,7 @@
         <v>50.003619999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1.2921670000000001</v>
       </c>
@@ -34364,7 +34521,7 @@
         <v>50.002540000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1.3921669999999999</v>
       </c>
@@ -34415,7 +34572,7 @@
         <v>50.002070000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1.4921660000000001</v>
       </c>
@@ -34466,7 +34623,7 @@
         <v>49.994250000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1.5921670000000001</v>
       </c>
@@ -34517,7 +34674,7 @@
         <v>50.000039999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1.692167</v>
       </c>
@@ -34568,7 +34725,7 @@
         <v>50.00996</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1.7921670000000001</v>
       </c>
@@ -34619,7 +34776,7 @@
         <v>49.993699999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1.892166</v>
       </c>
@@ -34670,7 +34827,7 @@
         <v>49.998849999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1.992167</v>
       </c>
@@ -34721,7 +34878,7 @@
         <v>50.007060000000003</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2.0921669999999999</v>
       </c>
@@ -34772,7 +34929,7 @@
         <v>49.993679999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2.1921659999999998</v>
       </c>
@@ -34823,7 +34980,7 @@
         <v>49.995890000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2.2921670000000001</v>
       </c>
@@ -34874,7 +35031,7 @@
         <v>50.000529999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2.392166</v>
       </c>
@@ -34925,7 +35082,7 @@
         <v>50.005940000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2.4921669999999998</v>
       </c>
@@ -34976,7 +35133,7 @@
         <v>50.030999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2.5921669999999999</v>
       </c>
@@ -35027,7 +35184,7 @@
         <v>49.991779999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2.6921659999999998</v>
       </c>
@@ -35078,7 +35235,7 @@
         <v>49.995890000000003</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2.7921670000000001</v>
       </c>
@@ -35129,7 +35286,7 @@
         <v>50.001399999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2.892166</v>
       </c>
@@ -35180,7 +35337,7 @@
         <v>50.001130000000003</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2.9921669999999998</v>
       </c>
@@ -35231,7 +35388,7 @@
         <v>49.996940000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>3.0921669999999999</v>
       </c>
@@ -35282,7 +35439,7 @@
         <v>50.005780000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>3.1921659999999998</v>
       </c>
@@ -35333,7 +35490,7 @@
         <v>50.004939999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>3.2921670000000001</v>
       </c>
@@ -35384,7 +35541,7 @@
         <v>49.993499999999997</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>3.392166</v>
       </c>
@@ -35435,7 +35592,7 @@
         <v>50.00056</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>3.4921669999999998</v>
       </c>
@@ -35486,7 +35643,7 @@
         <v>50.003500000000003</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>3.5921660000000002</v>
       </c>
@@ -35537,7 +35694,7 @@
         <v>49.990740000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>3.6921659999999998</v>
       </c>
@@ -35588,7 +35745,7 @@
         <v>50.004840000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>3.7921670000000001</v>
       </c>
@@ -35639,7 +35796,7 @@
         <v>50.017099999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>3.892166</v>
       </c>
@@ -35690,7 +35847,7 @@
         <v>49.997399999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>3.9921660000000001</v>
       </c>
@@ -35741,7 +35898,7 @@
         <v>50.008929999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>4.0921669999999999</v>
       </c>
@@ -35792,7 +35949,7 @@
         <v>49.997109999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>4.1921670000000004</v>
       </c>
@@ -35843,7 +36000,7 @@
         <v>50.005429999999997</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>4.2921670000000001</v>
       </c>
@@ -35894,7 +36051,7 @@
         <v>49.999560000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>4.3921659999999996</v>
       </c>
@@ -35945,7 +36102,7 @@
         <v>49.999160000000003</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>4.4921660000000001</v>
       </c>
@@ -35996,7 +36153,7 @@
         <v>49.997500000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>4.5921669999999999</v>
       </c>
@@ -36047,7 +36204,7 @@
         <v>50.02814</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>4.6921670000000004</v>
       </c>
@@ -36098,7 +36255,7 @@
         <v>50.003749999999997</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>4.7921670000000001</v>
       </c>
@@ -36149,7 +36306,7 @@
         <v>49.996429999999997</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>4.8921659999999996</v>
       </c>
@@ -36200,7 +36357,7 @@
         <v>49.993960000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>4.9921660000000001</v>
       </c>
@@ -36251,7 +36408,7 @@
         <v>50.002319999999997</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>5.0921669999999999</v>
       </c>
@@ -36302,7 +36459,7 @@
         <v>50.004579999999997</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>5.1921670000000004</v>
       </c>
@@ -36353,7 +36510,7 @@
         <v>49.997909999999997</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>5.2921680000000002</v>
       </c>
@@ -36404,7 +36561,7 @@
         <v>49.993850000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>5.3921679999999999</v>
       </c>
@@ -36455,7 +36612,7 @@
         <v>50.006830000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>5.4921680000000004</v>
       </c>
@@ -36506,7 +36663,7 @@
         <v>49.995359999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>5.592168</v>
       </c>
@@ -36557,7 +36714,7 @@
         <v>50.001040000000003</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>5.6921679999999997</v>
       </c>
@@ -36608,7 +36765,7 @@
         <v>50.005890000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>5.7921680000000002</v>
       </c>
@@ -36659,7 +36816,7 @@
         <v>49.993139999999997</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>5.8921679999999999</v>
       </c>
@@ -36710,7 +36867,7 @@
         <v>50.002560000000003</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>5.9921680000000004</v>
       </c>
@@ -36761,7 +36918,7 @@
         <v>50.003419999999998</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>6.092168</v>
       </c>
@@ -36812,7 +36969,7 @@
         <v>49.99512</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>6.1921679999999997</v>
       </c>
@@ -36863,7 +37020,7 @@
         <v>50.006830000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>6.2921680000000002</v>
       </c>
@@ -36914,7 +37071,7 @@
         <v>49.992629999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>6.3921679999999999</v>
       </c>
@@ -36965,7 +37122,7 @@
         <v>49.998939999999997</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>6.4921660000000001</v>
       </c>
@@ -37016,7 +37173,7 @@
         <v>49.994840000000003</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>6.592168</v>
       </c>
@@ -37067,7 +37224,7 @@
         <v>49.99924</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>6.6921679999999997</v>
       </c>
@@ -37118,7 +37275,7 @@
         <v>50.005560000000003</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>6.7921680000000002</v>
       </c>
@@ -37169,7 +37326,7 @@
         <v>50.00582</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>6.8921679999999999</v>
       </c>
@@ -37220,7 +37377,7 @@
         <v>49.994599999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>6.9921660000000001</v>
       </c>
@@ -37271,7 +37428,7 @@
         <v>49.999780000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>7.092168</v>
       </c>
@@ -37322,7 +37479,7 @@
         <v>50.004339999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>7.1921679999999997</v>
       </c>
@@ -37373,7 +37530,7 @@
         <v>49.995480000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>7.2921680000000002</v>
       </c>
@@ -37424,7 +37581,7 @@
         <v>49.993960000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>7.3921679999999999</v>
       </c>
@@ -37475,7 +37632,7 @@
         <v>50.00076</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>7.4921660000000001</v>
       </c>
@@ -37526,7 +37683,7 @@
         <v>50.00752</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>7.592168</v>
       </c>
@@ -37577,7 +37734,7 @@
         <v>50.002800000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>7.6921679999999997</v>
       </c>
@@ -37628,7 +37785,7 @@
         <v>49.995820000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>7.7921680000000002</v>
       </c>
@@ -37679,7 +37836,7 @@
         <v>49.9998</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>7.8921679999999999</v>
       </c>
@@ -37730,7 +37887,7 @@
         <v>50.006160000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>7.9921660000000001</v>
       </c>
@@ -37781,7 +37938,7 @@
         <v>49.9953</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>8.0921679999999991</v>
       </c>
@@ -37832,7 +37989,7 @@
         <v>49.99803</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>8.1921660000000003</v>
       </c>
@@ -37883,7 +38040,7 @@
         <v>50.00508</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>8.2921680000000002</v>
       </c>
@@ -37934,7 +38091,7 @@
         <v>49.995539999999998</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>8.3921679999999999</v>
       </c>
@@ -37985,7 +38142,7 @@
         <v>50.003610000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>8.4921659999999992</v>
       </c>
@@ -38036,7 +38193,7 @@
         <v>50.000869999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>8.5921679999999991</v>
       </c>
@@ -38087,7 +38244,7 @@
         <v>49.99812</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>8.6921660000000003</v>
       </c>
@@ -38138,7 +38295,7 @@
         <v>50.003140000000002</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>8.7921680000000002</v>
       </c>
@@ -38189,7 +38346,7 @@
         <v>50.002780000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>8.8921679999999999</v>
       </c>
@@ -38240,7 +38397,7 @@
         <v>49.99532</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>8.9921659999999992</v>
       </c>
@@ -38291,7 +38448,7 @@
         <v>50.002380000000002</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>9.0921679999999991</v>
       </c>
@@ -38342,7 +38499,7 @@
         <v>49.999929999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>9.1921660000000003</v>
       </c>
@@ -38393,7 +38550,7 @@
         <v>49.998800000000003</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>9.2921680000000002</v>
       </c>
@@ -38444,7 +38601,7 @@
         <v>49.992060000000002</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>9.3921679999999999</v>
       </c>
@@ -38495,7 +38652,7 @@
         <v>49.997900000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>9.4921659999999992</v>
       </c>
@@ -38546,7 +38703,7 @@
         <v>50.002200000000002</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>9.5921679999999991</v>
       </c>
@@ -38597,7 +38754,7 @@
         <v>50.007170000000002</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>9.6921660000000003</v>
       </c>
@@ -38648,7 +38805,7 @@
         <v>50.002319999999997</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>9.7921680000000002</v>
       </c>
@@ -38699,7 +38856,7 @@
         <v>49.999969999999998</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>9.8921679999999999</v>
       </c>
@@ -38750,7 +38907,7 @@
         <v>49.998460000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>9.9921659999999992</v>
       </c>
@@ -38801,7 +38958,7 @@
         <v>50.003639999999997</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>10.092169999999999</v>
       </c>
@@ -38852,7 +39009,7 @@
         <v>50.020299999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>10.192170000000001</v>
       </c>
@@ -38903,7 +39060,7 @@
         <v>49.999540000000003</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>10.29217</v>
       </c>
@@ -38954,7 +39111,7 @@
         <v>50.001330000000003</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>10.39217</v>
       </c>
@@ -39005,7 +39162,7 @@
         <v>49.998339999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>10.49216</v>
       </c>
@@ -39056,7 +39213,7 @@
         <v>49.996369999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>10.592169999999999</v>
       </c>
@@ -39107,7 +39264,7 @@
         <v>49.995980000000003</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>10.692159999999999</v>
       </c>
@@ -39158,7 +39315,7 @@
         <v>49.998399999999997</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>10.79217</v>
       </c>
@@ -39209,7 +39366,7 @@
         <v>50.008360000000003</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>10.89217</v>
       </c>
@@ -39260,7 +39417,7 @@
         <v>49.995109999999997</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>10.99216</v>
       </c>
@@ -39311,7 +39468,7 @@
         <v>50.000839999999997</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>11.092169999999999</v>
       </c>
@@ -39362,7 +39519,7 @@
         <v>50.004289999999997</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>11.192159999999999</v>
       </c>
@@ -39413,7 +39570,7 @@
         <v>50.007240000000003</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>11.29217</v>
       </c>
@@ -39464,7 +39621,7 @@
         <v>49.99145</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>11.39217</v>
       </c>
@@ -39515,7 +39672,7 @@
         <v>50.002200000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>11.49216</v>
       </c>
@@ -39566,7 +39723,7 @@
         <v>49.988599999999998</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>11.592169999999999</v>
       </c>
@@ -39617,7 +39774,7 @@
         <v>50.005920000000003</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>11.692159999999999</v>
       </c>
@@ -39668,7 +39825,7 @@
         <v>50.001739999999998</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>11.79217</v>
       </c>
@@ -39719,7 +39876,7 @@
         <v>49.994079999999997</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>11.89217</v>
       </c>
@@ -39770,7 +39927,7 @@
         <v>50.006120000000003</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>11.99216</v>
       </c>
@@ -39821,7 +39978,7 @@
         <v>49.994759999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>12.092169999999999</v>
       </c>
@@ -39872,7 +40029,7 @@
         <v>50.004300000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>12.192159999999999</v>
       </c>
@@ -39923,7 +40080,7 @@
         <v>50.00018</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>12.29217</v>
       </c>
@@ -39974,7 +40131,7 @@
         <v>49.995019999999997</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>12.39217</v>
       </c>
@@ -40025,7 +40182,7 @@
         <v>50.004860000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>12.49216</v>
       </c>
@@ -40076,7 +40233,7 @@
         <v>50.00197</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>12.592169999999999</v>
       </c>
@@ -40127,7 +40284,7 @@
         <v>49.999299999999998</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>12.692159999999999</v>
       </c>
@@ -40178,7 +40335,7 @@
         <v>50.003959999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>12.79217</v>
       </c>
@@ -40229,7 +40386,7 @@
         <v>49.994480000000003</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>12.89217</v>
       </c>
@@ -40280,7 +40437,7 @@
         <v>49.996940000000002</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>12.99216</v>
       </c>
@@ -40331,7 +40488,7 @@
         <v>50.003250000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>13.09216</v>
       </c>
@@ -40382,7 +40539,7 @@
         <v>49.997540000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>13.192159999999999</v>
       </c>
@@ -40433,7 +40590,7 @@
         <v>49.99832</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>13.292160000000001</v>
       </c>
@@ -40484,7 +40641,7 @@
         <v>50.001950000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>13.39217</v>
       </c>
@@ -40535,7 +40692,7 @@
         <v>50.000480000000003</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>13.49216</v>
       </c>
@@ -40586,7 +40743,7 @@
         <v>50.002310000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>13.59216</v>
       </c>
@@ -40637,7 +40794,7 @@
         <v>49.994779999999999</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>13.692159999999999</v>
       </c>
@@ -40688,7 +40845,7 @@
         <v>50.002380000000002</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>13.792160000000001</v>
       </c>
@@ -40739,7 +40896,7 @@
         <v>50.004060000000003</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>13.89217</v>
       </c>
@@ -40790,7 +40947,7 @@
         <v>50.009039999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>13.99216</v>
       </c>
@@ -40841,7 +40998,7 @@
         <v>49.994970000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>14.09216</v>
       </c>
@@ -40892,7 +41049,7 @@
         <v>49.997799999999998</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>14.192159999999999</v>
       </c>
@@ -40943,7 +41100,7 @@
         <v>50.00665</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>14.292160000000001</v>
       </c>
@@ -40994,7 +41151,7 @@
         <v>49.993279999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>14.39217</v>
       </c>
@@ -41045,7 +41202,7 @@
         <v>49.99098</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>14.49216</v>
       </c>
@@ -41096,7 +41253,7 @@
         <v>49.999420000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>14.59216</v>
       </c>
@@ -41147,7 +41304,7 @@
         <v>50.008830000000003</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>14.692159999999999</v>
       </c>
@@ -41198,7 +41355,7 @@
         <v>49.994480000000003</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>14.792160000000001</v>
       </c>
@@ -41249,7 +41406,7 @@
         <v>49.999209999999998</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>14.89217</v>
       </c>
@@ -41300,7 +41457,7 @@
         <v>50.005960000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>14.99216</v>
       </c>
@@ -41351,7 +41508,7 @@
         <v>49.993830000000003</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>15.09216</v>
       </c>
@@ -41402,7 +41559,7 @@
         <v>50.00168</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>15.192159999999999</v>
       </c>
@@ -41453,7 +41610,7 @@
         <v>50.004390000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>15.292160000000001</v>
       </c>
@@ -41504,7 +41661,7 @@
         <v>50.018540000000002</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>15.39217</v>
       </c>
@@ -41555,7 +41712,7 @@
         <v>49.996299999999998</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>15.49216</v>
       </c>
@@ -41606,7 +41763,7 @@
         <v>50.007860000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>15.59216</v>
       </c>
@@ -41657,7 +41814,7 @@
         <v>50.004600000000003</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>15.692159999999999</v>
       </c>
@@ -41708,7 +41865,7 @@
         <v>49.992989999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>15.792160000000001</v>
       </c>
@@ -41759,7 +41916,7 @@
         <v>50.003140000000002</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>15.89217</v>
       </c>
@@ -41810,7 +41967,7 @@
         <v>49.998480000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>15.99217</v>
       </c>
@@ -41861,7 +42018,7 @@
         <v>49.995100000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>16.09216</v>
       </c>
@@ -41912,7 +42069,7 @@
         <v>50.003140000000002</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>16.192160000000001</v>
       </c>
@@ -41963,7 +42120,7 @@
         <v>50.007640000000002</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>16.292159999999999</v>
       </c>
@@ -42014,7 +42171,7 @@
         <v>49.985489999999999</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>16.392160000000001</v>
       </c>
@@ -42065,7 +42222,7 @@
         <v>50.007060000000003</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>16.492159999999998</v>
       </c>
@@ -42116,7 +42273,7 @@
         <v>49.990160000000003</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>16.59216</v>
       </c>
@@ -42167,7 +42324,7 @@
         <v>50.005609999999997</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>16.692160000000001</v>
       </c>
@@ -42218,7 +42375,7 @@
         <v>50.005099999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>16.792159999999999</v>
       </c>
@@ -42269,7 +42426,7 @@
         <v>50.005580000000002</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>16.892160000000001</v>
       </c>
@@ -42320,7 +42477,7 @@
         <v>49.997579999999999</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>16.992159999999998</v>
       </c>
@@ -42371,7 +42528,7 @@
         <v>49.993139999999997</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>17.09216</v>
       </c>
@@ -42422,7 +42579,7 @@
         <v>49.99579</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>17.192160000000001</v>
       </c>
@@ -42473,7 +42630,7 @@
         <v>50.033000000000001</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>17.292159999999999</v>
       </c>
@@ -42524,7 +42681,7 @@
         <v>49.990850000000002</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>17.392160000000001</v>
       </c>
@@ -42575,7 +42732,7 @@
         <v>49.999679999999998</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>17.492159999999998</v>
       </c>
@@ -42626,7 +42783,7 @@
         <v>50.004219999999997</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>17.59216</v>
       </c>
@@ -42677,7 +42834,7 @@
         <v>50.031300000000002</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>17.692160000000001</v>
       </c>
@@ -42728,7 +42885,7 @@
         <v>49.997280000000003</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>17.792159999999999</v>
       </c>
@@ -42779,7 +42936,7 @@
         <v>50.002310000000001</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>17.892160000000001</v>
       </c>
@@ -42830,7 +42987,7 @@
         <v>50.008099999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>17.992159999999998</v>
       </c>
@@ -42881,7 +43038,7 @@
         <v>50.021439999999998</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>18.09216</v>
       </c>
@@ -42932,7 +43089,7 @@
         <v>50.023629999999997</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>18.192160000000001</v>
       </c>
@@ -42983,7 +43140,7 @@
         <v>49.991190000000003</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>18.292159999999999</v>
       </c>
@@ -43034,7 +43191,7 @@
         <v>50.000079999999997</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>18.392160000000001</v>
       </c>
@@ -43085,7 +43242,7 @@
         <v>50.008519999999997</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>18.492159999999998</v>
       </c>
@@ -43136,7 +43293,7 @@
         <v>49.999589999999998</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>18.59216</v>
       </c>
@@ -43187,7 +43344,7 @@
         <v>49.99532</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>18.692160000000001</v>
       </c>
@@ -43238,7 +43395,7 @@
         <v>50.006399999999999</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>18.792159999999999</v>
       </c>
@@ -43289,7 +43446,7 @@
         <v>49.993830000000003</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>18.892160000000001</v>
       </c>
@@ -43340,7 +43497,7 @@
         <v>50.006149999999998</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>18.992159999999998</v>
       </c>
@@ -43391,7 +43548,7 @@
         <v>49.994019999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>19.09216</v>
       </c>
@@ -43442,7 +43599,7 @@
         <v>49.995280000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>19.192160000000001</v>
       </c>
@@ -43493,7 +43650,7 @@
         <v>50.011220000000002</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>19.292159999999999</v>
       </c>
@@ -43544,7 +43701,7 @@
         <v>49.99588</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>19.392160000000001</v>
       </c>
@@ -43595,7 +43752,7 @@
         <v>50.004019999999997</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>19.492159999999998</v>
       </c>
@@ -43646,7 +43803,7 @@
         <v>50.001800000000003</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>19.59216</v>
       </c>
@@ -43697,7 +43854,7 @@
         <v>50.000689999999999</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>19.692160000000001</v>
       </c>
@@ -43748,7 +43905,7 @@
         <v>49.99024</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>19.792159999999999</v>
       </c>
@@ -43799,7 +43956,7 @@
         <v>50.004840000000002</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>19.892160000000001</v>
       </c>
@@ -43850,7 +44007,7 @@
         <v>49.995359999999998</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>19.992159999999998</v>
       </c>
@@ -43901,7 +44058,7 @@
         <v>50.037089999999999</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>20.09216</v>
       </c>
@@ -43952,7 +44109,7 @@
         <v>49.991880000000002</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>20.192160000000001</v>
       </c>
@@ -44003,7 +44160,7 @@
         <v>50.00264</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>20.292159999999999</v>
       </c>
@@ -44054,7 +44211,7 @@
         <v>49.993940000000002</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>20.392160000000001</v>
       </c>
@@ -44105,7 +44262,7 @@
         <v>50.00956</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>20.492159999999998</v>
       </c>
@@ -44156,7 +44313,7 @@
         <v>49.99579</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>20.59216</v>
       </c>
@@ -44207,7 +44364,7 @@
         <v>50.000599999999999</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>20.692160000000001</v>
       </c>
@@ -44258,7 +44415,7 @@
         <v>50.000279999999997</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>20.792159999999999</v>
       </c>
@@ -44309,7 +44466,7 @@
         <v>49.995159999999998</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>20.892160000000001</v>
       </c>
@@ -44360,7 +44517,7 @@
         <v>50.00947</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>20.992159999999998</v>
       </c>
@@ -44411,7 +44568,7 @@
         <v>49.990870000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>21.09216</v>
       </c>
@@ -44462,7 +44619,7 @@
         <v>50.008429999999997</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>21.192160000000001</v>
       </c>
@@ -44513,7 +44670,7 @@
         <v>50.016829999999999</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>21.292159999999999</v>
       </c>
@@ -44564,7 +44721,7 @@
         <v>49.998660000000001</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>21.392160000000001</v>
       </c>
@@ -44615,7 +44772,7 @@
         <v>50.002429999999997</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>21.492159999999998</v>
       </c>
@@ -44666,7 +44823,7 @@
         <v>50.0032</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>21.59216</v>
       </c>
@@ -44717,7 +44874,7 @@
         <v>49.99286</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>21.692160000000001</v>
       </c>
@@ -44768,7 +44925,7 @@
         <v>50.003599999999999</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>21.792159999999999</v>
       </c>
@@ -44819,7 +44976,7 @@
         <v>50.006320000000002</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>21.892160000000001</v>
       </c>
@@ -44870,7 +45027,7 @@
         <v>49.989150000000002</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>21.992159999999998</v>
       </c>
@@ -44921,7 +45078,7 @@
         <v>50.001429999999999</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>22.09216</v>
       </c>
@@ -44972,7 +45129,7 @@
         <v>50.011180000000003</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>22.192160000000001</v>
       </c>
@@ -45023,7 +45180,7 @@
         <v>49.989579999999997</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>22.292159999999999</v>
       </c>
@@ -45074,7 +45231,7 @@
         <v>50.004199999999997</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>22.392160000000001</v>
       </c>
@@ -45125,7 +45282,7 @@
         <v>49.99268</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>22.492159999999998</v>
       </c>
@@ -45176,7 +45333,7 @@
         <v>50.006279999999997</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>22.59216</v>
       </c>
@@ -45227,7 +45384,7 @@
         <v>49.998289999999997</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>22.692160000000001</v>
       </c>
@@ -45278,7 +45435,7 @@
         <v>50.004069999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>22.792159999999999</v>
       </c>
@@ -45329,7 +45486,7 @@
         <v>49.9938</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>22.892160000000001</v>
       </c>
@@ -45380,7 +45537,7 @@
         <v>49.997210000000003</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>22.992159999999998</v>
       </c>
@@ -45431,7 +45588,7 @@
         <v>50.00508</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>23.09216</v>
       </c>
@@ -45482,7 +45639,7 @@
         <v>50.008600000000001</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>23.192160000000001</v>
       </c>
@@ -45533,7 +45690,7 @@
         <v>49.998620000000003</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>23.292159999999999</v>
       </c>
@@ -45584,7 +45741,7 @@
         <v>49.991790000000002</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>23.392160000000001</v>
       </c>
@@ -45635,7 +45792,7 @@
         <v>49.993960000000001</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>23.492159999999998</v>
       </c>
@@ -45686,7 +45843,7 @@
         <v>50.001570000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>23.59216</v>
       </c>
@@ -45737,7 +45894,7 @@
         <v>50.003909999999998</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>23.692160000000001</v>
       </c>
@@ -45788,7 +45945,7 @@
         <v>49.9953</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>23.792159999999999</v>
       </c>
@@ -45839,7 +45996,7 @@
         <v>50.00273</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>23.892160000000001</v>
       </c>
@@ -45890,7 +46047,7 @@
         <v>50.007159999999999</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>23.992159999999998</v>
       </c>
@@ -45941,7 +46098,7 @@
         <v>50.0032</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>24.09216</v>
       </c>
@@ -45992,7 +46149,7 @@
         <v>49.996740000000003</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>24.192160000000001</v>
       </c>
@@ -46043,7 +46200,7 @@
         <v>49.994019999999999</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>24.292159999999999</v>
       </c>
@@ -46094,7 +46251,7 @@
         <v>49.998919999999998</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>24.392160000000001</v>
       </c>
@@ -46145,7 +46302,7 @@
         <v>49.999319999999997</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>24.492159999999998</v>
       </c>
@@ -46196,7 +46353,7 @@
         <v>50.006799999999998</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>24.59216</v>
       </c>
@@ -46247,7 +46404,7 @@
         <v>50.008209999999998</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>24.692160000000001</v>
       </c>
@@ -46298,7 +46455,7 @@
         <v>50.032040000000002</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>24.792159999999999</v>
       </c>
@@ -46349,7 +46506,7 @@
         <v>50.024299999999997</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>24.892160000000001</v>
       </c>
@@ -46400,7 +46557,7 @@
         <v>50.002960000000002</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>24.992159999999998</v>
       </c>
@@ -46451,7 +46608,7 @@
         <v>50.000340000000001</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>25.09216</v>
       </c>
@@ -46502,7 +46659,7 @@
         <v>49.99953</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>25.192160000000001</v>
       </c>
@@ -46553,7 +46710,7 @@
         <v>49.996490000000001</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>25.292159999999999</v>
       </c>
@@ -46604,7 +46761,7 @@
         <v>50.002600000000001</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>25.392160000000001</v>
       </c>
@@ -46655,7 +46812,7 @@
         <v>50.00029</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>25.492159999999998</v>
       </c>
@@ -46706,7 +46863,7 @@
         <v>49.999110000000002</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>25.59216</v>
       </c>
@@ -46757,7 +46914,7 @@
         <v>50.004300000000001</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>25.692160000000001</v>
       </c>
@@ -46808,7 +46965,7 @@
         <v>49.997909999999997</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>25.792159999999999</v>
       </c>
@@ -46859,7 +47016,7 @@
         <v>49.99962</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>25.892160000000001</v>
       </c>
@@ -46910,7 +47067,7 @@
         <v>50.006900000000002</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>25.992159999999998</v>
       </c>
@@ -46961,7 +47118,7 @@
         <v>50.02704</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>26.09216</v>
       </c>
@@ -47012,7 +47169,7 @@
         <v>49.998159999999999</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>26.192160000000001</v>
       </c>
@@ -47063,7 +47220,7 @@
         <v>50.000619999999998</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>26.292159999999999</v>
       </c>
@@ -47114,7 +47271,7 @@
         <v>50.001420000000003</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>26.392160000000001</v>
       </c>
@@ -47165,7 +47322,7 @@
         <v>49.987540000000003</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>26.492159999999998</v>
       </c>
@@ -47216,7 +47373,7 @@
         <v>50.011719999999997</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>26.59216</v>
       </c>
@@ -47267,7 +47424,7 @@
         <v>49.994819999999997</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>26.692160000000001</v>
       </c>
@@ -47318,7 +47475,7 @@
         <v>49.995899999999999</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>26.792159999999999</v>
       </c>
@@ -47369,7 +47526,7 @@
         <v>50.008279999999999</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>26.892160000000001</v>
       </c>
@@ -47420,7 +47577,7 @@
         <v>49.995640000000002</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>26.992159999999998</v>
       </c>
@@ -47471,7 +47628,7 @@
         <v>50.001100000000001</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>27.09216</v>
       </c>
@@ -47522,7 +47679,7 @@
         <v>50.00318</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>27.192160000000001</v>
       </c>
@@ -47573,7 +47730,7 @@
         <v>50.0002</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>27.292159999999999</v>
       </c>
@@ -47624,7 +47781,7 @@
         <v>50.005159999999997</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>27.392160000000001</v>
       </c>
@@ -47675,7 +47832,7 @@
         <v>49.99606</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>27.492159999999998</v>
       </c>
@@ -47726,7 +47883,7 @@
         <v>49.996670000000002</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>27.59216</v>
       </c>
@@ -47777,7 +47934,7 @@
         <v>50.005200000000002</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>27.692160000000001</v>
       </c>
@@ -47828,7 +47985,7 @@
         <v>49.996540000000003</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>27.792159999999999</v>
       </c>
@@ -47879,7 +48036,7 @@
         <v>50.005659999999999</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>27.892160000000001</v>
       </c>
@@ -47930,7 +48087,7 @@
         <v>49.997160000000001</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>27.992159999999998</v>
       </c>
@@ -47981,7 +48138,7 @@
         <v>49.996659999999999</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>28.09216</v>
       </c>
@@ -48032,7 +48189,7 @@
         <v>50.00441</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>28.192160000000001</v>
       </c>
@@ -48083,7 +48240,7 @@
         <v>49.998530000000002</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>28.292159999999999</v>
       </c>
@@ -48134,7 +48291,7 @@
         <v>49.998950000000001</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>28.392160000000001</v>
       </c>
@@ -48185,7 +48342,7 @@
         <v>50.015779999999999</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>28.492159999999998</v>
       </c>
@@ -48236,7 +48393,7 @@
         <v>50.006610000000002</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>28.59216</v>
       </c>
@@ -48287,7 +48444,7 @@
         <v>49.995600000000003</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>28.692160000000001</v>
       </c>
@@ -48338,7 +48495,7 @@
         <v>49.995330000000003</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>28.792159999999999</v>
       </c>
@@ -48389,7 +48546,7 @@
         <v>50.002609999999997</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>28.892160000000001</v>
       </c>
@@ -48440,7 +48597,7 @@
         <v>50.00074</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>28.992159999999998</v>
       </c>
@@ -48491,7 +48648,7 @@
         <v>49.993819999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>29.09216</v>
       </c>
@@ -48542,7 +48699,7 @@
         <v>50.004710000000003</v>
       </c>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>29.192160000000001</v>
       </c>
@@ -48593,7 +48750,7 @@
         <v>49.998820000000002</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>29.292159999999999</v>
       </c>
@@ -48644,7 +48801,7 @@
         <v>49.993899999999996</v>
       </c>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>29.392160000000001</v>
       </c>
@@ -48695,7 +48852,7 @@
         <v>50.005960000000002</v>
       </c>
     </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>29.492159999999998</v>
       </c>
@@ -48746,7 +48903,7 @@
         <v>50.007109999999997</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>29.59216</v>
       </c>
@@ -48797,7 +48954,7 @@
         <v>49.994320000000002</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>29.692160000000001</v>
       </c>
@@ -48848,7 +49005,7 @@
         <v>50.000190000000003</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>29.792159999999999</v>
       </c>
@@ -48899,7 +49056,7 @@
         <v>49.999940000000002</v>
       </c>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>29.892160000000001</v>
       </c>
@@ -48950,7 +49107,7 @@
         <v>49.996040000000001</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>29.992159999999998</v>
       </c>
@@ -49001,7 +49158,7 @@
         <v>49.998759999999997</v>
       </c>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>30.09216</v>
       </c>
@@ -49052,7 +49209,7 @@
         <v>50.004800000000003</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>30.192160000000001</v>
       </c>
@@ -49103,7 +49260,7 @@
         <v>50.001800000000003</v>
       </c>
     </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>30.292159999999999</v>
       </c>
@@ -49154,7 +49311,7 @@
         <v>50.00244</v>
       </c>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>30.392160000000001</v>
       </c>
@@ -49205,7 +49362,7 @@
         <v>50.003639999999997</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>30.492159999999998</v>
       </c>
@@ -49256,7 +49413,7 @@
         <v>50.022660000000002</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>30.59216</v>
       </c>
@@ -49307,7 +49464,7 @@
         <v>50.005299999999998</v>
       </c>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>30.692160000000001</v>
       </c>
@@ -49358,7 +49515,7 @@
         <v>49.993740000000003</v>
       </c>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>30.792159999999999</v>
       </c>
@@ -49409,7 +49566,7 @@
         <v>50.000619999999998</v>
       </c>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>30.892160000000001</v>
       </c>
@@ -49460,7 +49617,7 @@
         <v>50.00253</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>30.992159999999998</v>
       </c>
@@ -49511,7 +49668,7 @@
         <v>50.037309999999998</v>
       </c>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>31.09216</v>
       </c>
@@ -49562,7 +49719,7 @@
         <v>49.996760000000002</v>
       </c>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>31.192160000000001</v>
       </c>
@@ -49613,7 +49770,7 @@
         <v>49.999499999999998</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>31.292159999999999</v>
       </c>
@@ -49664,7 +49821,7 @@
         <v>50.00488</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>31.392160000000001</v>
       </c>
@@ -49715,7 +49872,7 @@
         <v>49.994349999999997</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>31.492159999999998</v>
       </c>
@@ -49766,7 +49923,7 @@
         <v>50.001660000000001</v>
       </c>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>31.59216</v>
       </c>
@@ -49817,7 +49974,7 @@
         <v>50.001559999999998</v>
       </c>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>31.692160000000001</v>
       </c>
@@ -49868,7 +50025,7 @@
         <v>49.991390000000003</v>
       </c>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>31.792159999999999</v>
       </c>
@@ -49919,7 +50076,7 @@
         <v>50.00282</v>
       </c>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>31.892160000000001</v>
       </c>
@@ -49970,7 +50127,7 @@
         <v>49.999740000000003</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>31.992159999999998</v>
       </c>
@@ -50021,7 +50178,7 @@
         <v>49.99597</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>32.09216</v>
       </c>
@@ -50072,7 +50229,7 @@
         <v>49.999630000000003</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>32.192160000000001</v>
       </c>
@@ -50123,7 +50280,7 @@
         <v>50.005279999999999</v>
       </c>
     </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>32.292160000000003</v>
       </c>
@@ -50174,7 +50331,7 @@
         <v>49.995220000000003</v>
       </c>
     </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>32.392159999999997</v>
       </c>
@@ -50225,7 +50382,7 @@
         <v>50.008589999999998</v>
       </c>
     </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>32.492159999999998</v>
       </c>
@@ -50276,7 +50433,7 @@
         <v>49.99389</v>
       </c>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>32.59216</v>
       </c>
@@ -50327,7 +50484,7 @@
         <v>50.036720000000003</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>32.692160000000001</v>
       </c>
@@ -50378,7 +50535,7 @@
         <v>50.023479999999999</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>32.792160000000003</v>
       </c>
@@ -50429,7 +50586,7 @@
         <v>49.999459999999999</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>32.892159999999997</v>
       </c>
@@ -50480,7 +50637,7 @@
         <v>50.00027</v>
       </c>
     </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>32.992159999999998</v>
       </c>
@@ -50531,7 +50688,7 @@
         <v>50.003999999999998</v>
       </c>
     </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>33.09216</v>
       </c>
@@ -50582,7 +50739,7 @@
         <v>49.992980000000003</v>
       </c>
     </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>33.192160000000001</v>
       </c>
@@ -50633,7 +50790,7 @@
         <v>49.999409999999997</v>
       </c>
     </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>33.292160000000003</v>
       </c>
@@ -50684,7 +50841,7 @@
         <v>50.005380000000002</v>
       </c>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>33.392159999999997</v>
       </c>
@@ -50735,7 +50892,7 @@
         <v>49.995660000000001</v>
       </c>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>33.492159999999998</v>
       </c>
@@ -50786,7 +50943,7 @@
         <v>49.997019999999999</v>
       </c>
     </row>
-    <row r="405" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>33.59216</v>
       </c>
@@ -50837,7 +50994,7 @@
         <v>49.99776</v>
       </c>
     </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>33.692160000000001</v>
       </c>
@@ -50888,7 +51045,7 @@
         <v>50.00235</v>
       </c>
     </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>33.792160000000003</v>
       </c>
@@ -50939,7 +51096,7 @@
         <v>50.000190000000003</v>
       </c>
     </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>33.892159999999997</v>
       </c>
@@ -50990,7 +51147,7 @@
         <v>49.995890000000003</v>
       </c>
     </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>33.992159999999998</v>
       </c>
@@ -51041,7 +51198,7 @@
         <v>50.006819999999998</v>
       </c>
     </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>34.09216</v>
       </c>
@@ -51092,7 +51249,7 @@
         <v>50.030090000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>34.192160000000001</v>
       </c>
@@ -51143,7 +51300,7 @@
         <v>49.997579999999999</v>
       </c>
     </row>
-    <row r="412" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>34.292160000000003</v>
       </c>
@@ -51194,7 +51351,7 @@
         <v>49.99118</v>
       </c>
     </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>34.392159999999997</v>
       </c>
@@ -51245,7 +51402,7 @@
         <v>49.998049999999999</v>
       </c>
     </row>
-    <row r="414" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>34.492159999999998</v>
       </c>
@@ -51296,7 +51453,7 @@
         <v>50.00076</v>
       </c>
     </row>
-    <row r="415" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>34.59216</v>
       </c>
@@ -51347,7 +51504,7 @@
         <v>50.001690000000004</v>
       </c>
     </row>
-    <row r="416" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>34.692160000000001</v>
       </c>
@@ -51398,7 +51555,7 @@
         <v>50.003160000000001</v>
       </c>
     </row>
-    <row r="417" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>34.792160000000003</v>
       </c>
@@ -51449,7 +51606,7 @@
         <v>49.998100000000001</v>
       </c>
     </row>
-    <row r="418" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>34.892159999999997</v>
       </c>
@@ -51500,7 +51657,7 @@
         <v>49.999760000000002</v>
       </c>
     </row>
-    <row r="419" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>34.992159999999998</v>
       </c>
@@ -51551,7 +51708,7 @@
         <v>50.005679999999998</v>
       </c>
     </row>
-    <row r="420" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>35.09216</v>
       </c>
@@ -51602,7 +51759,7 @@
         <v>49.996180000000003</v>
       </c>
     </row>
-    <row r="421" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>35.192160000000001</v>
       </c>
@@ -51653,7 +51810,7 @@
         <v>49.99776</v>
       </c>
     </row>
-    <row r="422" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>35.292160000000003</v>
       </c>
@@ -51704,7 +51861,7 @@
         <v>50.002270000000003</v>
       </c>
     </row>
-    <row r="423" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>35.392159999999997</v>
       </c>
@@ -51755,7 +51912,7 @@
         <v>50.006970000000003</v>
       </c>
     </row>
-    <row r="424" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>35.492159999999998</v>
       </c>
@@ -51806,7 +51963,7 @@
         <v>49.994720000000001</v>
       </c>
     </row>
-    <row r="425" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>35.59216</v>
       </c>
@@ -51857,7 +52014,7 @@
         <v>49.995260000000002</v>
       </c>
     </row>
-    <row r="426" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>35.692160000000001</v>
       </c>
@@ -51908,7 +52065,7 @@
         <v>49.999839999999999</v>
       </c>
     </row>
-    <row r="427" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>35.792160000000003</v>
       </c>
@@ -51959,7 +52116,7 @@
         <v>50.025239999999997</v>
       </c>
     </row>
-    <row r="428" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>35.892159999999997</v>
       </c>
@@ -52010,7 +52167,7 @@
         <v>49.994439999999997</v>
       </c>
     </row>
-    <row r="429" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>35.992159999999998</v>
       </c>
@@ -52061,7 +52218,7 @@
         <v>49.997770000000003</v>
       </c>
     </row>
-    <row r="430" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>36.09216</v>
       </c>
@@ -52112,7 +52269,7 @@
         <v>50.000349999999997</v>
       </c>
     </row>
-    <row r="431" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>36.192160000000001</v>
       </c>
@@ -52163,7 +52320,7 @@
         <v>50.00264</v>
       </c>
     </row>
-    <row r="432" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>36.292160000000003</v>
       </c>
@@ -52214,7 +52371,7 @@
         <v>50.002020000000002</v>
       </c>
     </row>
-    <row r="433" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>36.392159999999997</v>
       </c>
@@ -52265,7 +52422,7 @@
         <v>50.0015</v>
       </c>
     </row>
-    <row r="434" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>36.492159999999998</v>
       </c>
@@ -52316,7 +52473,7 @@
         <v>49.995339999999999</v>
       </c>
     </row>
-    <row r="435" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>36.59216</v>
       </c>
@@ -52367,7 +52524,7 @@
         <v>49.996560000000002</v>
       </c>
     </row>
-    <row r="436" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>36.692160000000001</v>
       </c>
@@ -52418,7 +52575,7 @@
         <v>50.006</v>
       </c>
     </row>
-    <row r="437" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>36.792160000000003</v>
       </c>
@@ -52469,7 +52626,7 @@
         <v>50.000660000000003</v>
       </c>
     </row>
-    <row r="438" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>36.892159999999997</v>
       </c>
@@ -52520,7 +52677,7 @@
         <v>49.999839999999999</v>
       </c>
     </row>
-    <row r="439" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>36.992159999999998</v>
       </c>
@@ -52571,7 +52728,7 @@
         <v>49.999589999999998</v>
       </c>
     </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>37.09216</v>
       </c>
@@ -52622,7 +52779,7 @@
         <v>50.000059999999998</v>
       </c>
     </row>
-    <row r="441" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>37.192160000000001</v>
       </c>
@@ -52673,7 +52830,7 @@
         <v>49.9985</v>
       </c>
     </row>
-    <row r="442" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>37.292160000000003</v>
       </c>
@@ -52724,7 +52881,7 @@
         <v>49.996830000000003</v>
       </c>
     </row>
-    <row r="443" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>37.392159999999997</v>
       </c>
@@ -52775,7 +52932,7 @@
         <v>50.003729999999997</v>
       </c>
     </row>
-    <row r="444" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>37.492159999999998</v>
       </c>
@@ -52826,7 +52983,7 @@
         <v>50.005839999999999</v>
       </c>
     </row>
-    <row r="445" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>37.59216</v>
       </c>
@@ -52877,7 +53034,7 @@
         <v>49.997680000000003</v>
       </c>
     </row>
-    <row r="446" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>37.692160000000001</v>
       </c>
@@ -52928,7 +53085,7 @@
         <v>49.997570000000003</v>
       </c>
     </row>
-    <row r="447" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>37.792160000000003</v>
       </c>
@@ -52979,7 +53136,7 @@
         <v>50.003</v>
       </c>
     </row>
-    <row r="448" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>37.892159999999997</v>
       </c>
@@ -53030,7 +53187,7 @@
         <v>50.021680000000003</v>
       </c>
     </row>
-    <row r="449" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>37.992159999999998</v>
       </c>
@@ -53081,7 +53238,7 @@
         <v>49.996369999999999</v>
       </c>
     </row>
-    <row r="450" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>38.09216</v>
       </c>
@@ -53132,7 +53289,7 @@
         <v>50.00403</v>
       </c>
     </row>
-    <row r="451" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>38.192160000000001</v>
       </c>
@@ -53183,7 +53340,7 @@
         <v>50.012799999999999</v>
       </c>
     </row>
-    <row r="452" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>38.292160000000003</v>
       </c>
@@ -53234,7 +53391,7 @@
         <v>50.005139999999997</v>
       </c>
     </row>
-    <row r="453" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>38.392159999999997</v>
       </c>
@@ -53285,7 +53442,7 @@
         <v>50.002839999999999</v>
       </c>
     </row>
-    <row r="454" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>38.492159999999998</v>
       </c>
@@ -53336,7 +53493,7 @@
         <v>49.994410000000002</v>
       </c>
     </row>
-    <row r="455" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>38.59216</v>
       </c>
@@ -53387,7 +53544,7 @@
         <v>50.003999999999998</v>
       </c>
     </row>
-    <row r="456" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>38.692160000000001</v>
       </c>
@@ -53438,7 +53595,7 @@
         <v>50.001339999999999</v>
       </c>
     </row>
-    <row r="457" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>38.792160000000003</v>
       </c>
@@ -53489,7 +53646,7 @@
         <v>49.998820000000002</v>
       </c>
     </row>
-    <row r="458" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>38.892159999999997</v>
       </c>
@@ -53540,7 +53697,7 @@
         <v>49.993400000000001</v>
       </c>
     </row>
-    <row r="459" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>38.992159999999998</v>
       </c>
@@ -53591,7 +53748,7 @@
         <v>50.006390000000003</v>
       </c>
     </row>
-    <row r="460" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>39.09216</v>
       </c>
@@ -53642,7 +53799,7 @@
         <v>50.003360000000001</v>
       </c>
     </row>
-    <row r="461" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>39.192160000000001</v>
       </c>
@@ -53693,7 +53850,7 @@
         <v>49.993699999999997</v>
       </c>
     </row>
-    <row r="462" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>39.292160000000003</v>
       </c>
@@ -53744,7 +53901,7 @@
         <v>50.005699999999997</v>
       </c>
     </row>
-    <row r="463" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>39.392159999999997</v>
       </c>
@@ -53795,7 +53952,7 @@
         <v>50.001660000000001</v>
       </c>
     </row>
-    <row r="464" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>39.492159999999998</v>
       </c>
@@ -53846,7 +54003,7 @@
         <v>49.996110000000002</v>
       </c>
     </row>
-    <row r="465" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>39.59216</v>
       </c>
@@ -53897,7 +54054,7 @@
         <v>50.007809999999999</v>
       </c>
     </row>
-    <row r="466" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>39.692160000000001</v>
       </c>
@@ -53948,7 +54105,7 @@
         <v>49.992080000000001</v>
       </c>
     </row>
-    <row r="467" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>39.792160000000003</v>
       </c>
@@ -53999,7 +54156,7 @@
         <v>50.00356</v>
       </c>
     </row>
-    <row r="468" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>39.892159999999997</v>
       </c>
@@ -54050,7 +54207,7 @@
         <v>50.018740000000001</v>
       </c>
     </row>
-    <row r="469" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>39.992159999999998</v>
       </c>
@@ -54101,7 +54258,7 @@
         <v>50.004289999999997</v>
       </c>
     </row>
-    <row r="470" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>40.09216</v>
       </c>
@@ -54152,7 +54309,7 @@
         <v>50.003979999999999</v>
       </c>
     </row>
-    <row r="471" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>40.192160000000001</v>
       </c>
@@ -54203,7 +54360,7 @@
         <v>49.99324</v>
       </c>
     </row>
-    <row r="472" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>40.292160000000003</v>
       </c>
@@ -54254,7 +54411,7 @@
         <v>50.008310000000002</v>
       </c>
     </row>
-    <row r="473" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>40.392159999999997</v>
       </c>
@@ -54305,7 +54462,7 @@
         <v>49.992660000000001</v>
       </c>
     </row>
-    <row r="474" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>40.492159999999998</v>
       </c>
@@ -54356,7 +54513,7 @@
         <v>49.995179999999998</v>
       </c>
     </row>
-    <row r="475" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>40.59216</v>
       </c>
@@ -54407,7 +54564,7 @@
         <v>50.006030000000003</v>
       </c>
     </row>
-    <row r="476" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>40.692160000000001</v>
       </c>
@@ -54458,7 +54615,7 @@
         <v>50.0032</v>
       </c>
     </row>
-    <row r="477" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>40.792160000000003</v>
       </c>
@@ -54509,7 +54666,7 @@
         <v>49.998959999999997</v>
       </c>
     </row>
-    <row r="478" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>40.892159999999997</v>
       </c>
@@ -54560,7 +54717,7 @@
         <v>49.996000000000002</v>
       </c>
     </row>
-    <row r="479" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>40.992159999999998</v>
       </c>
@@ -54611,7 +54768,7 @@
         <v>50.008580000000002</v>
       </c>
     </row>
-    <row r="480" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>41.092170000000003</v>
       </c>
@@ -54662,7 +54819,7 @@
         <v>49.994399999999999</v>
       </c>
     </row>
-    <row r="481" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>41.192169999999997</v>
       </c>
@@ -54713,7 +54870,7 @@
         <v>50.000909999999998</v>
       </c>
     </row>
-    <row r="482" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>41.292160000000003</v>
       </c>
@@ -54764,7 +54921,7 @@
         <v>50.005920000000003</v>
       </c>
     </row>
-    <row r="483" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>41.39217</v>
       </c>
@@ -54815,7 +54972,7 @@
         <v>49.994140000000002</v>
       </c>
     </row>
-    <row r="484" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>41.492159999999998</v>
       </c>
@@ -54866,7 +55023,7 @@
         <v>49.996310000000001</v>
       </c>
     </row>
-    <row r="485" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>41.592170000000003</v>
       </c>
@@ -54917,7 +55074,7 @@
         <v>50.006700000000002</v>
       </c>
     </row>
-    <row r="486" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>41.692169999999997</v>
       </c>
@@ -54968,7 +55125,7 @@
         <v>49.999890000000001</v>
       </c>
     </row>
-    <row r="487" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>41.792160000000003</v>
       </c>
@@ -55019,7 +55176,7 @@
         <v>49.989530000000002</v>
       </c>
     </row>
-    <row r="488" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>41.89217</v>
       </c>
@@ -55070,7 +55227,7 @@
         <v>50.003599999999999</v>
       </c>
     </row>
-    <row r="489" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>41.992159999999998</v>
       </c>
@@ -55121,7 +55278,7 @@
         <v>50.001820000000002</v>
       </c>
     </row>
-    <row r="490" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>42.092170000000003</v>
       </c>
@@ -55172,7 +55329,7 @@
         <v>49.995489999999997</v>
       </c>
     </row>
-    <row r="491" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>42.192169999999997</v>
       </c>
@@ -55223,7 +55380,7 @@
         <v>50.002000000000002</v>
       </c>
     </row>
-    <row r="492" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>42.292160000000003</v>
       </c>
@@ -55274,7 +55431,7 @@
         <v>50.005940000000002</v>
       </c>
     </row>
-    <row r="493" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>42.39217</v>
       </c>
@@ -55325,7 +55482,7 @@
         <v>50.026479999999999</v>
       </c>
     </row>
-    <row r="494" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>42.492159999999998</v>
       </c>
@@ -55376,7 +55533,7 @@
         <v>49.991880000000002</v>
       </c>
     </row>
-    <row r="495" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>42.592170000000003</v>
       </c>
@@ -55427,7 +55584,7 @@
         <v>50.00761</v>
       </c>
     </row>
-    <row r="496" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>42.692169999999997</v>
       </c>
@@ -55478,7 +55635,7 @@
         <v>50.005240000000001</v>
       </c>
     </row>
-    <row r="497" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>42.792160000000003</v>
       </c>
@@ -55529,7 +55686,7 @@
         <v>49.996099999999998</v>
       </c>
     </row>
-    <row r="498" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>42.89217</v>
       </c>
@@ -55580,7 +55737,7 @@
         <v>49.99335</v>
       </c>
     </row>
-    <row r="499" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>42.992159999999998</v>
       </c>
@@ -55631,7 +55788,7 @@
         <v>49.998359999999998</v>
       </c>
     </row>
-    <row r="500" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>43.092170000000003</v>
       </c>
@@ -55682,7 +55839,7 @@
         <v>50.007539999999999</v>
       </c>
     </row>
-    <row r="501" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>43.192169999999997</v>
       </c>
@@ -55733,7 +55890,7 @@
         <v>49.993740000000003</v>
       </c>
     </row>
-    <row r="502" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>43.292160000000003</v>
       </c>
@@ -55784,7 +55941,7 @@
         <v>50.000109999999999</v>
       </c>
     </row>
-    <row r="503" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>43.39217</v>
       </c>
@@ -55835,7 +55992,7 @@
         <v>50.006160000000001</v>
       </c>
     </row>
-    <row r="504" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>43.492159999999998</v>
       </c>
@@ -55886,7 +56043,7 @@
         <v>50.03248</v>
       </c>
     </row>
-    <row r="505" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>43.592170000000003</v>
       </c>
@@ -55937,7 +56094,7 @@
         <v>50.025880000000001</v>
       </c>
     </row>
-    <row r="506" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>43.692169999999997</v>
       </c>
@@ -55988,7 +56145,7 @@
         <v>49.993459999999999</v>
       </c>
     </row>
-    <row r="507" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>43.792160000000003</v>
       </c>
@@ -56039,7 +56196,7 @@
         <v>49.995579999999997</v>
       </c>
     </row>
-    <row r="508" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>43.89217</v>
       </c>
@@ -56090,7 +56247,7 @@
         <v>50.001779999999997</v>
       </c>
     </row>
-    <row r="509" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>43.992159999999998</v>
       </c>
@@ -56141,7 +56298,7 @@
         <v>50.007179999999998</v>
       </c>
     </row>
-    <row r="510" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>44.092170000000003</v>
       </c>
@@ -56192,7 +56349,7 @@
         <v>49.991869999999999</v>
       </c>
     </row>
-    <row r="511" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>44.192169999999997</v>
       </c>
@@ -56243,7 +56400,7 @@
         <v>50.007309999999997</v>
       </c>
     </row>
-    <row r="512" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>44.292160000000003</v>
       </c>
@@ -56294,7 +56451,7 @@
         <v>50.006180000000001</v>
       </c>
     </row>
-    <row r="513" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>44.39217</v>
       </c>
@@ -56345,7 +56502,7 @@
         <v>49.996609999999997</v>
       </c>
     </row>
-    <row r="514" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>44.492159999999998</v>
       </c>
@@ -56396,7 +56553,7 @@
         <v>49.998750000000001</v>
       </c>
     </row>
-    <row r="515" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>44.592170000000003</v>
       </c>
@@ -56447,7 +56604,7 @@
         <v>49.993130000000001</v>
       </c>
     </row>
-    <row r="516" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>44.692169999999997</v>
       </c>
@@ -56498,7 +56655,7 @@
         <v>49.995640000000002</v>
       </c>
     </row>
-    <row r="517" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>44.792160000000003</v>
       </c>
@@ -56549,7 +56706,7 @@
         <v>50.008580000000002</v>
       </c>
     </row>
-    <row r="518" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>44.89217</v>
       </c>
@@ -56600,7 +56757,7 @@
         <v>49.994390000000003</v>
       </c>
     </row>
-    <row r="519" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>44.992159999999998</v>
       </c>
@@ -56651,7 +56808,7 @@
         <v>50.029829999999997</v>
       </c>
     </row>
-    <row r="520" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>45.092170000000003</v>
       </c>
@@ -56702,7 +56859,7 @@
         <v>50.008780000000002</v>
       </c>
     </row>
-    <row r="521" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>45.192169999999997</v>
       </c>
@@ -56753,7 +56910,7 @@
         <v>49.993980000000001</v>
       </c>
     </row>
-    <row r="522" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>45.292160000000003</v>
       </c>
@@ -56804,7 +56961,7 @@
         <v>49.996380000000002</v>
       </c>
     </row>
-    <row r="523" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>45.39217</v>
       </c>
@@ -56855,7 +57012,7 @@
         <v>50.006369999999997</v>
       </c>
     </row>
-    <row r="524" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>45.492159999999998</v>
       </c>
@@ -56906,7 +57063,7 @@
         <v>49.994329999999998</v>
       </c>
     </row>
-    <row r="525" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>45.592170000000003</v>
       </c>
@@ -56957,7 +57114,7 @@
         <v>50.006309999999999</v>
       </c>
     </row>
-    <row r="526" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>45.692169999999997</v>
       </c>
@@ -57008,7 +57165,7 @@
         <v>49.995600000000003</v>
       </c>
     </row>
-    <row r="527" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>45.792160000000003</v>
       </c>
@@ -57059,7 +57216,7 @@
         <v>49.998620000000003</v>
       </c>
     </row>
-    <row r="528" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>45.89217</v>
       </c>
@@ -57110,7 +57267,7 @@
         <v>50.0017</v>
       </c>
     </row>
-    <row r="529" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>45.992159999999998</v>
       </c>
@@ -57161,7 +57318,7 @@
         <v>50.000480000000003</v>
       </c>
     </row>
-    <row r="530" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>46.092170000000003</v>
       </c>
@@ -57212,7 +57369,7 @@
         <v>49.99586</v>
       </c>
     </row>
-    <row r="531" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>46.192169999999997</v>
       </c>
@@ -57263,7 +57420,7 @@
         <v>50.005780000000001</v>
       </c>
     </row>
-    <row r="532" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>46.292160000000003</v>
       </c>
@@ -57314,7 +57471,7 @@
         <v>49.991129999999998</v>
       </c>
     </row>
-    <row r="533" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>46.39217</v>
       </c>
@@ -57365,7 +57522,7 @@
         <v>50.006279999999997</v>
       </c>
     </row>
-    <row r="534" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>46.492159999999998</v>
       </c>
@@ -57416,7 +57573,7 @@
         <v>50.001640000000002</v>
       </c>
     </row>
-    <row r="535" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>46.592170000000003</v>
       </c>
@@ -57467,7 +57624,7 @@
         <v>49.99492</v>
       </c>
     </row>
-    <row r="536" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>46.692169999999997</v>
       </c>
@@ -57518,7 +57675,7 @@
         <v>50.000480000000003</v>
       </c>
     </row>
-    <row r="537" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>46.792160000000003</v>
       </c>
@@ -57569,7 +57726,7 @@
         <v>50.00459</v>
       </c>
     </row>
-    <row r="538" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>46.89217</v>
       </c>
@@ -57620,7 +57777,7 @@
         <v>49.995289999999997</v>
       </c>
     </row>
-    <row r="539" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>46.992159999999998</v>
       </c>
@@ -57671,7 +57828,7 @@
         <v>50.001100000000001</v>
       </c>
     </row>
-    <row r="540" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>47.092170000000003</v>
       </c>
@@ -57722,7 +57879,7 @@
         <v>50.002220000000001</v>
       </c>
     </row>
-    <row r="541" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>47.192169999999997</v>
       </c>
@@ -57773,7 +57930,7 @@
         <v>49.997929999999997</v>
       </c>
     </row>
-    <row r="542" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>47.292160000000003</v>
       </c>
@@ -57824,7 +57981,7 @@
         <v>49.999160000000003</v>
       </c>
     </row>
-    <row r="543" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>47.39217</v>
       </c>
@@ -57875,7 +58032,7 @@
         <v>50.003619999999998</v>
       </c>
     </row>
-    <row r="544" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>47.492159999999998</v>
       </c>
@@ -57926,7 +58083,7 @@
         <v>50.000610000000002</v>
       </c>
     </row>
-    <row r="545" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>47.592170000000003</v>
       </c>
@@ -57977,7 +58134,7 @@
         <v>49.995480000000001</v>
       </c>
     </row>
-    <row r="546" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>47.692169999999997</v>
       </c>
@@ -58028,7 +58185,7 @@
         <v>50.003239999999998</v>
       </c>
     </row>
-    <row r="547" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>47.792160000000003</v>
       </c>
@@ -58079,7 +58236,7 @@
         <v>50.000819999999997</v>
       </c>
     </row>
-    <row r="548" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>47.89217</v>
       </c>
@@ -58130,7 +58287,7 @@
         <v>50.007829999999998</v>
       </c>
     </row>
-    <row r="549" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>47.992159999999998</v>
       </c>
@@ -58181,7 +58338,7 @@
         <v>49.992829999999998</v>
       </c>
     </row>
-    <row r="550" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>48.092170000000003</v>
       </c>
@@ -58232,7 +58389,7 @@
         <v>49.992730000000002</v>
       </c>
     </row>
-    <row r="551" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>48.192169999999997</v>
       </c>
@@ -58283,7 +58440,7 @@
         <v>50.012320000000003</v>
       </c>
     </row>
-    <row r="552" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>48.292160000000003</v>
       </c>
@@ -58334,7 +58491,7 @@
         <v>50.002079999999999</v>
       </c>
     </row>
-    <row r="553" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>48.39217</v>
       </c>
@@ -58385,7 +58542,7 @@
         <v>49.988019999999999</v>
       </c>
     </row>
-    <row r="554" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>48.492159999999998</v>
       </c>
@@ -58436,7 +58593,7 @@
         <v>50.003619999999998</v>
       </c>
     </row>
-    <row r="555" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>48.592170000000003</v>
       </c>
@@ -58487,7 +58644,7 @@
         <v>49.994970000000002</v>
       </c>
     </row>
-    <row r="556" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>48.692169999999997</v>
       </c>
@@ -58538,7 +58695,7 @@
         <v>50.0077</v>
       </c>
     </row>
-    <row r="557" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>48.792160000000003</v>
       </c>
@@ -58589,7 +58746,7 @@
         <v>50.004260000000002</v>
       </c>
     </row>
-    <row r="558" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>48.89217</v>
       </c>
@@ -58640,7 +58797,7 @@
         <v>50.002960000000002</v>
       </c>
     </row>
-    <row r="559" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>48.992159999999998</v>
       </c>
@@ -58691,7 +58848,7 @@
         <v>49.991100000000003</v>
       </c>
     </row>
-    <row r="560" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>49.092170000000003</v>
       </c>
@@ -58742,7 +58899,7 @@
         <v>50.051029999999997</v>
       </c>
     </row>
-    <row r="561" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>49.192169999999997</v>
       </c>
@@ -58793,7 +58950,7 @@
         <v>50.002049999999997</v>
       </c>
     </row>
-    <row r="562" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>49.292160000000003</v>
       </c>
@@ -58844,7 +59001,7 @@
         <v>49.998089999999998</v>
       </c>
     </row>
-    <row r="563" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>49.39217</v>
       </c>
@@ -58895,7 +59052,7 @@
         <v>50.003740000000001</v>
       </c>
     </row>
-    <row r="564" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>49.492159999999998</v>
       </c>
@@ -58946,7 +59103,7 @@
         <v>50.001199999999997</v>
       </c>
     </row>
-    <row r="565" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>49.592170000000003</v>
       </c>
@@ -58997,7 +59154,7 @@
         <v>50.003570000000003</v>
       </c>
     </row>
-    <row r="566" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>49.692169999999997</v>
       </c>
@@ -59048,7 +59205,7 @@
         <v>49.991799999999998</v>
       </c>
     </row>
-    <row r="567" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>49.792160000000003</v>
       </c>
@@ -59099,7 +59256,7 @@
         <v>49.993789999999997</v>
       </c>
     </row>
-    <row r="568" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>49.89217</v>
       </c>
@@ -59150,7 +59307,7 @@
         <v>50.016739999999999</v>
       </c>
     </row>
-    <row r="569" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>49.992159999999998</v>
       </c>
@@ -59201,7 +59358,7 @@
         <v>49.989669999999997</v>
       </c>
     </row>
-    <row r="570" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>50.092170000000003</v>
       </c>
@@ -59252,7 +59409,7 @@
         <v>50.004339999999999</v>
       </c>
     </row>
-    <row r="571" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>50.192169999999997</v>
       </c>
@@ -59303,7 +59460,7 @@
         <v>49.994979999999998</v>
       </c>
     </row>
-    <row r="572" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>50.292160000000003</v>
       </c>
@@ -59354,7 +59511,7 @@
         <v>50.015999999999998</v>
       </c>
     </row>
-    <row r="573" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>50.39217</v>
       </c>
@@ -59405,7 +59562,7 @@
         <v>50.005749999999999</v>
       </c>
     </row>
-    <row r="574" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>50.492159999999998</v>
       </c>
@@ -59456,7 +59613,7 @@
         <v>49.9953</v>
       </c>
     </row>
-    <row r="575" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>50.592170000000003</v>
       </c>
@@ -59507,7 +59664,7 @@
         <v>50.008470000000003</v>
       </c>
     </row>
-    <row r="576" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>50.692169999999997</v>
       </c>
@@ -59558,7 +59715,7 @@
         <v>49.993119999999998</v>
       </c>
     </row>
-    <row r="577" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>50.792160000000003</v>
       </c>
@@ -59609,7 +59766,7 @@
         <v>49.994700000000002</v>
       </c>
     </row>
-    <row r="578" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>50.89217</v>
       </c>
@@ -59660,7 +59817,7 @@
         <v>50.000239999999998</v>
       </c>
     </row>
-    <row r="579" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>50.992159999999998</v>
       </c>
@@ -59711,7 +59868,7 @@
         <v>50.002130000000001</v>
       </c>
     </row>
-    <row r="580" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>51.092170000000003</v>
       </c>
@@ -59762,7 +59919,7 @@
         <v>50.006140000000002</v>
       </c>
     </row>
-    <row r="581" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>51.192169999999997</v>
       </c>
@@ -59813,7 +59970,7 @@
         <v>50.002519999999997</v>
       </c>
     </row>
-    <row r="582" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>51.292160000000003</v>
       </c>
@@ -59864,7 +60021,7 @@
         <v>49.991540000000001</v>
       </c>
     </row>
-    <row r="583" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>51.392159999999997</v>
       </c>
@@ -59915,7 +60072,7 @@
         <v>49.997239999999998</v>
       </c>
     </row>
-    <row r="584" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>51.492159999999998</v>
       </c>
@@ -59966,7 +60123,7 @@
         <v>50.001959999999997</v>
       </c>
     </row>
-    <row r="585" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>51.592170000000003</v>
       </c>
@@ -60017,7 +60174,7 @@
         <v>50.004939999999998</v>
       </c>
     </row>
-    <row r="586" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>51.692160000000001</v>
       </c>
@@ -60068,7 +60225,7 @@
         <v>50.021599999999999</v>
       </c>
     </row>
-    <row r="587" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>51.792160000000003</v>
       </c>
@@ -60119,7 +60276,7 @@
         <v>50.00264</v>
       </c>
     </row>
-    <row r="588" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>51.892159999999997</v>
       </c>
@@ -60170,7 +60327,7 @@
         <v>49.998910000000002</v>
       </c>
     </row>
-    <row r="589" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>51.992159999999998</v>
       </c>
@@ -60221,7 +60378,7 @@
         <v>50.003720000000001</v>
       </c>
     </row>
-    <row r="590" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>52.092170000000003</v>
       </c>
@@ -60272,7 +60429,7 @@
         <v>50.00226</v>
       </c>
     </row>
-    <row r="591" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>52.192160000000001</v>
       </c>
@@ -60323,7 +60480,7 @@
         <v>49.9925</v>
       </c>
     </row>
-    <row r="592" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>52.292160000000003</v>
       </c>
@@ -60374,7 +60531,7 @@
         <v>50.004579999999997</v>
       </c>
     </row>
-    <row r="593" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>52.392159999999997</v>
       </c>
@@ -60425,7 +60582,7 @@
         <v>49.997920000000001</v>
       </c>
     </row>
-    <row r="594" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>52.492159999999998</v>
       </c>
@@ -60476,7 +60633,7 @@
         <v>50.003169999999997</v>
       </c>
     </row>
-    <row r="595" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>52.592170000000003</v>
       </c>
@@ -60527,7 +60684,7 @@
         <v>49.997500000000002</v>
       </c>
     </row>
-    <row r="596" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>52.692160000000001</v>
       </c>
@@ -60578,7 +60735,7 @@
         <v>49.992539999999998</v>
       </c>
     </row>
-    <row r="597" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>52.792160000000003</v>
       </c>
@@ -60629,7 +60786,7 @@
         <v>50.006340000000002</v>
       </c>
     </row>
-    <row r="598" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>52.892159999999997</v>
       </c>
@@ -60680,7 +60837,7 @@
         <v>50.000210000000003</v>
       </c>
     </row>
-    <row r="599" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>52.992159999999998</v>
       </c>
@@ -60731,7 +60888,7 @@
         <v>50.001040000000003</v>
       </c>
     </row>
-    <row r="600" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>53.092170000000003</v>
       </c>
@@ -60782,7 +60939,7 @@
         <v>49.9938</v>
       </c>
     </row>
-    <row r="601" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>53.192160000000001</v>
       </c>
@@ -60833,7 +60990,7 @@
         <v>50.007089999999998</v>
       </c>
     </row>
-    <row r="602" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>53.292160000000003</v>
       </c>
@@ -60884,7 +61041,7 @@
         <v>50.005960000000002</v>
       </c>
     </row>
-    <row r="603" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>53.392159999999997</v>
       </c>
@@ -60935,7 +61092,7 @@
         <v>49.998089999999998</v>
       </c>
     </row>
-    <row r="604" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>53.492159999999998</v>
       </c>
@@ -60986,7 +61143,7 @@
         <v>49.989559999999997</v>
       </c>
     </row>
-    <row r="605" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>53.592170000000003</v>
       </c>
@@ -61037,7 +61194,7 @@
         <v>49.998690000000003</v>
       </c>
     </row>
-    <row r="606" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>53.692160000000001</v>
       </c>
@@ -61088,7 +61245,7 @@
         <v>50.012129999999999</v>
       </c>
     </row>
-    <row r="607" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>53.792160000000003</v>
       </c>
@@ -61139,7 +61296,7 @@
         <v>49.997909999999997</v>
       </c>
     </row>
-    <row r="608" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>53.892159999999997</v>
       </c>
@@ -61190,7 +61347,7 @@
         <v>49.99859</v>
       </c>
     </row>
-    <row r="609" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>53.992159999999998</v>
       </c>
@@ -61241,7 +61398,7 @@
         <v>49.99248</v>
       </c>
     </row>
-    <row r="610" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>54.092170000000003</v>
       </c>
@@ -61292,7 +61449,7 @@
         <v>50.00468</v>
       </c>
     </row>
-    <row r="611" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>54.192160000000001</v>
       </c>
@@ -61343,7 +61500,7 @@
         <v>49.99568</v>
       </c>
     </row>
-    <row r="612" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>54.292160000000003</v>
       </c>
@@ -61394,7 +61551,7 @@
         <v>50.000979999999998</v>
       </c>
     </row>
-    <row r="613" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>54.392159999999997</v>
       </c>
@@ -61445,7 +61602,7 @@
         <v>50.000860000000003</v>
       </c>
     </row>
-    <row r="614" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>54.492159999999998</v>
       </c>
@@ -61496,7 +61653,7 @@
         <v>50.004100000000001</v>
       </c>
     </row>
-    <row r="615" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>54.592170000000003</v>
       </c>
@@ -61547,7 +61704,7 @@
         <v>49.996830000000003</v>
       </c>
     </row>
-    <row r="616" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>54.692160000000001</v>
       </c>
@@ -61598,7 +61755,7 @@
         <v>50.009659999999997</v>
       </c>
     </row>
-    <row r="617" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>54.792160000000003</v>
       </c>
@@ -61649,7 +61806,7 @@
         <v>50.024929999999998</v>
       </c>
     </row>
-    <row r="618" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>54.892159999999997</v>
       </c>
@@ -61700,7 +61857,7 @@
         <v>49.993000000000002</v>
       </c>
     </row>
-    <row r="619" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>54.992159999999998</v>
       </c>
@@ -61751,7 +61908,7 @@
         <v>49.998170000000002</v>
       </c>
     </row>
-    <row r="620" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>55.092170000000003</v>
       </c>
@@ -61802,7 +61959,7 @@
         <v>50.000059999999998</v>
       </c>
     </row>
-    <row r="621" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>55.192160000000001</v>
       </c>
@@ -61853,7 +62010,7 @@
         <v>50.007399999999997</v>
       </c>
     </row>
-    <row r="622" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>55.292160000000003</v>
       </c>
@@ -61904,7 +62061,7 @@
         <v>49.990279999999998</v>
       </c>
     </row>
-    <row r="623" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>55.392159999999997</v>
       </c>
@@ -61955,7 +62112,7 @@
         <v>50.008049999999997</v>
       </c>
     </row>
-    <row r="624" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>55.492159999999998</v>
       </c>
@@ -62006,7 +62163,7 @@
         <v>50.002890000000001</v>
       </c>
     </row>
-    <row r="625" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>55.592170000000003</v>
       </c>
@@ -62057,7 +62214,7 @@
         <v>49.999200000000002</v>
       </c>
     </row>
-    <row r="626" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>55.692160000000001</v>
       </c>
@@ -62108,7 +62265,7 @@
         <v>49.989600000000003</v>
       </c>
     </row>
-    <row r="627" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>55.792160000000003</v>
       </c>
@@ -62159,7 +62316,7 @@
         <v>50.00647</v>
       </c>
     </row>
-    <row r="628" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>55.892159999999997</v>
       </c>
@@ -62210,7 +62367,7 @@
         <v>49.996409999999997</v>
       </c>
     </row>
-    <row r="629" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>55.992159999999998</v>
       </c>
@@ -62261,7 +62418,7 @@
         <v>49.998719999999999</v>
       </c>
     </row>
-    <row r="630" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>56.092170000000003</v>
       </c>
@@ -62312,7 +62469,7 @@
         <v>50.003259999999997</v>
       </c>
     </row>
-    <row r="631" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>56.192160000000001</v>
       </c>
@@ -62363,7 +62520,7 @@
         <v>50.007089999999998</v>
       </c>
     </row>
-    <row r="632" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>56.292160000000003</v>
       </c>
@@ -62414,7 +62571,7 @@
         <v>49.994140000000002</v>
       </c>
     </row>
-    <row r="633" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>56.392159999999997</v>
       </c>
@@ -62465,7 +62622,7 @@
         <v>50.003219999999999</v>
       </c>
     </row>
-    <row r="634" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>56.492159999999998</v>
       </c>
@@ -62516,7 +62673,7 @@
         <v>50.003439999999998</v>
       </c>
     </row>
-    <row r="635" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>56.592170000000003</v>
       </c>
@@ -62567,7 +62724,7 @@
         <v>49.9953</v>
       </c>
     </row>
-    <row r="636" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>56.692160000000001</v>
       </c>
@@ -62618,7 +62775,7 @@
         <v>49.99926</v>
       </c>
     </row>
-    <row r="637" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>56.792160000000003</v>
       </c>
@@ -62669,7 +62826,7 @@
         <v>49.99944</v>
       </c>
     </row>
-    <row r="638" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>56.892159999999997</v>
       </c>
@@ -62720,7 +62877,7 @@
         <v>49.992660000000001</v>
       </c>
     </row>
-    <row r="639" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>56.992159999999998</v>
       </c>
@@ -62771,7 +62928,7 @@
         <v>50.000590000000003</v>
       </c>
     </row>
-    <row r="640" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>57.092170000000003</v>
       </c>
@@ -62822,7 +62979,7 @@
         <v>50.006059999999998</v>
       </c>
     </row>
-    <row r="641" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>57.192160000000001</v>
       </c>
@@ -62873,7 +63030,7 @@
         <v>49.99044</v>
       </c>
     </row>
-    <row r="642" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>57.292160000000003</v>
       </c>
@@ -62924,7 +63081,7 @@
         <v>50.011969999999998</v>
       </c>
     </row>
-    <row r="643" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>57.392159999999997</v>
       </c>
@@ -62975,7 +63132,7 @@
         <v>49.993279999999999</v>
       </c>
     </row>
-    <row r="644" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>57.492159999999998</v>
       </c>
@@ -63026,7 +63183,7 @@
         <v>50.000059999999998</v>
       </c>
     </row>
-    <row r="645" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>57.592170000000003</v>
       </c>
@@ -63077,7 +63234,7 @@
         <v>50.003219999999999</v>
       </c>
     </row>
-    <row r="646" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>57.692160000000001</v>
       </c>
@@ -63128,7 +63285,7 @@
         <v>49.995359999999998</v>
       </c>
     </row>
-    <row r="647" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>57.792160000000003</v>
       </c>
@@ -63179,7 +63336,7 @@
         <v>50.00582</v>
       </c>
     </row>
-    <row r="648" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>57.892159999999997</v>
       </c>
@@ -63230,7 +63387,7 @@
         <v>49.992069999999998</v>
       </c>
     </row>
-    <row r="649" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>57.992159999999998</v>
       </c>
@@ -63281,7 +63438,7 @@
         <v>50.008299999999998</v>
       </c>
     </row>
-    <row r="650" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>58.092170000000003</v>
       </c>
@@ -63332,7 +63489,7 @@
         <v>49.996499999999997</v>
       </c>
     </row>
-    <row r="651" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>58.192160000000001</v>
       </c>
@@ -63383,7 +63540,7 @@
         <v>49.998820000000002</v>
       </c>
     </row>
-    <row r="652" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>58.292160000000003</v>
       </c>
@@ -63434,7 +63591,7 @@
         <v>50.024529999999999</v>
       </c>
     </row>
-    <row r="653" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>58.392159999999997</v>
       </c>
@@ -63485,7 +63642,7 @@
         <v>49.99756</v>
       </c>
     </row>
-    <row r="654" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>58.492159999999998</v>
       </c>
@@ -63536,7 +63693,7 @@
         <v>49.998100000000001</v>
       </c>
     </row>
-    <row r="655" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>58.592170000000003</v>
       </c>
@@ -63594,809 +63751,806 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="9.140625" style="5"/>
-    <col min="7" max="7" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="9.140625" style="5"/>
-    <col min="14" max="14" width="23.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" style="5" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="5"/>
+    <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1">
         <f>AB2</f>
         <v>-54.576666666666661</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" t="s">
         <v>155</v>
       </c>
-      <c r="V1" s="5">
+      <c r="V1">
         <v>1</v>
       </c>
-      <c r="W1" s="5">
+      <c r="W1">
         <v>2</v>
       </c>
-      <c r="X1" s="5">
+      <c r="X1">
         <v>3</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2">
         <f>AB12</f>
         <v>88.853333333333339</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" t="s">
         <v>148</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" t="s">
         <v>152</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" t="s">
         <v>157</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" t="s">
         <v>153</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" t="s">
         <v>154</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" t="s">
         <v>168</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V2">
         <v>-56.78</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W2">
         <v>-53.72</v>
       </c>
-      <c r="X2" s="5">
+      <c r="X2">
         <v>-53.23</v>
       </c>
-      <c r="AB2" s="5">
+      <c r="AB2">
         <f>AVERAGE(V2:X2)</f>
         <v>-54.576666666666661</v>
       </c>
-      <c r="AC2" s="5">
+      <c r="AC2">
         <f>_xlfn.STDEV.P(V2:X2)</f>
         <v>1.5707818293943818</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3">
         <v>0.4758227445954244</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3">
         <f>$B$1+($B$2-$B$1)*$B$3*H3/(1-(1-$B$3)*H3)</f>
         <v>-54.576666666666661</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3">
         <f t="shared" ref="J3:J12" si="0">AB2</f>
         <v>-54.576666666666661</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3">
         <f>(J3-I3)^2</f>
         <v>0</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" t="s">
         <v>155</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" t="s">
         <v>156</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" t="s">
         <v>170</v>
       </c>
-      <c r="V3" s="5">
+      <c r="V3">
         <v>-48.76</v>
       </c>
-      <c r="W3" s="5">
+      <c r="W3">
         <v>-48.97</v>
       </c>
-      <c r="X3" s="5">
+      <c r="X3">
         <v>-48.17</v>
       </c>
-      <c r="AB3" s="5">
+      <c r="AB3">
         <f>AVERAGE(V3:X3)</f>
         <v>-48.633333333333326</v>
       </c>
-      <c r="AC3" s="5">
+      <c r="AC3">
         <f>_xlfn.STDEV.P(V3:X3)</f>
         <v>0.33865748019036573</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="G4" s="5" t="s">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
         <v>158</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4">
         <f t="shared" ref="I4" si="1">$B$1+($B$2-$B$1)*$B$3*H4/(1-(1-$B$3)*H4)</f>
         <v>-51.144394273026023</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4">
         <f t="shared" si="0"/>
         <v>-48.633333333333326</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4">
         <f>(J4-I4)^2</f>
         <v>6.3054270428503729</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" t="s">
         <v>181</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4">
         <v>0.78</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4">
         <f t="shared" ref="R4:R9" si="2">$B$1+($B$2-$B$1)*$B$3*Q4/(1-(1-$B$3)*Q4)</f>
         <v>35.474257177878989</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4">
         <f>AB13</f>
         <v>39.625</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" t="s">
         <v>171</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4">
         <v>-40.9</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W4">
         <v>-45.25</v>
       </c>
-      <c r="X4" s="5">
+      <c r="X4">
         <v>-43.48</v>
       </c>
-      <c r="AB4" s="5">
+      <c r="AB4">
         <f>AVERAGE(V4:X4)</f>
         <v>-43.21</v>
       </c>
-      <c r="AC4" s="5">
+      <c r="AC4">
         <f>_xlfn.STDEV.P(V4:X4)</f>
         <v>1.7861130983227242</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="G5" s="5" t="s">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
         <v>159</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5">
         <v>0.114</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5">
         <f t="shared" ref="I5:I12" si="3">$B$1+($B$2-$B$1)*$B$3*H5/(1-(1-$B$3)*H5)</f>
         <v>-46.302017823230429</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5">
         <f t="shared" si="0"/>
         <v>-43.21</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5">
         <f>(J5-I5)^2</f>
         <v>9.5605742191746348</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" t="s">
         <v>181</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5">
         <v>0.84499999999999997</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5">
         <f t="shared" si="2"/>
         <v>48.945168734982282</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5">
         <f>AB14</f>
         <v>52.666666666666664</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="U5" t="s">
         <v>172</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5">
         <v>-32.200000000000003</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5">
         <v>-27</v>
       </c>
-      <c r="X5" s="5">
+      <c r="X5">
         <v>-25.7</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="Y5">
         <v>-33.1</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="Z5">
         <v>-33.5</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AA5">
         <v>-29</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AB5">
         <f>AVERAGE(V5:AA5)</f>
         <v>-30.083333333333332</v>
       </c>
-      <c r="AC5" s="5">
+      <c r="AC5">
         <f>_xlfn.STDEV.P(V5:AA5)</f>
         <v>3.0317303456753657</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="G6" s="5" t="s">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
         <v>160</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6">
         <v>0.24199999999999999</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6">
         <f t="shared" si="3"/>
         <v>-35.661413893712577</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>-30.083333333333332</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6">
         <f t="shared" ref="K6" si="4">(J6-I6)^2</f>
         <v>31.114982738080833</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" t="s">
         <v>181</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6">
         <v>0.9</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6">
         <f t="shared" si="2"/>
         <v>61.700926785780347</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6">
         <f>AB15</f>
         <v>66</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="U6" t="s">
         <v>173</v>
       </c>
-      <c r="V6" s="5">
+      <c r="V6">
         <v>-17.96</v>
       </c>
-      <c r="W6" s="5">
+      <c r="W6">
         <v>-12.14</v>
       </c>
-      <c r="X6" s="5">
+      <c r="X6">
         <v>-12.4</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="Y6">
         <v>-13.05</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AB6">
         <f>AVERAGE(W6:Y6)</f>
         <v>-12.530000000000001</v>
       </c>
-      <c r="AC6" s="5">
+      <c r="AC6">
         <f>_xlfn.STDEV.P(W6:Y6)</f>
         <v>0.38270963754087345</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="G7" s="5" t="s">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
         <v>161</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7">
         <v>0.439</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7">
         <f t="shared" si="3"/>
         <v>-15.661115140390571</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7">
         <f>AB6</f>
         <v>-12.530000000000001</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7">
         <f t="shared" ref="K7:K19" si="5">(J7-I7)^2</f>
         <v>9.8038820223830569</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="P7" t="s">
         <v>181</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7">
         <v>0.97499999999999998</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7">
         <f t="shared" si="2"/>
         <v>81.519419048841343</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7">
         <f>(84.77+83.7)/2</f>
         <v>84.234999999999999</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="U7" t="s">
         <v>174</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7">
         <v>12.8</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7">
         <v>14.9</v>
       </c>
-      <c r="X7" s="5">
+      <c r="X7">
         <v>16.5</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AB7">
         <f>AVERAGE(V7:X7)</f>
         <v>14.733333333333334</v>
       </c>
-      <c r="AC7" s="5">
+      <c r="AC7">
         <f t="shared" ref="AC7:AC12" si="6">_xlfn.STDEV.P(V7:X7)</f>
         <v>1.5151090903151296</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="G8" s="5" t="s">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
         <v>162</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8">
         <v>0.64500000000000002</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8">
         <f>$B$1+($B$2-$B$1)*$B$3*H8/(1-(1-$B$3)*H8)</f>
         <v>11.927492858681084</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8">
         <f>AB7</f>
         <v>14.733333333333334</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8">
         <f t="shared" si="5"/>
         <v>7.8727407691967626</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="P8" t="s">
         <v>180</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8">
         <v>0.91600000000000004</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8">
         <f t="shared" si="2"/>
         <v>65.677348381278762</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8">
         <v>70</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="U8" t="s">
         <v>175</v>
       </c>
-      <c r="V8" s="5">
+      <c r="V8">
         <v>34</v>
       </c>
-      <c r="W8" s="5">
+      <c r="W8">
         <v>37</v>
       </c>
-      <c r="X8" s="5">
+      <c r="X8">
         <v>36.5</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AB8">
         <f>AVERAGE(V8:X8)</f>
         <v>35.833333333333336</v>
       </c>
-      <c r="AC8" s="5">
+      <c r="AC8">
         <f t="shared" si="6"/>
         <v>1.3123346456686351</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="G9" s="5" t="s">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
         <v>163</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9">
         <v>0.75</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9">
         <f t="shared" si="3"/>
         <v>29.767081244141913</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>35.833333333333336</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9">
         <f t="shared" si="5"/>
         <v>36.799414409619303</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9">
         <v>0.7</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9">
         <f t="shared" si="2"/>
         <v>20.885182029621525</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9">
         <v>27.3</v>
       </c>
-      <c r="U9" s="5" t="s">
+      <c r="U9" t="s">
         <v>176</v>
       </c>
-      <c r="V9" s="5">
+      <c r="V9">
         <v>56.5</v>
       </c>
-      <c r="W9" s="5">
+      <c r="W9">
         <v>58</v>
       </c>
-      <c r="X9" s="5">
+      <c r="X9">
         <v>58</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="Y9">
         <v>53.34</v>
       </c>
-      <c r="AB9" s="5">
+      <c r="AB9">
         <f>AVERAGE(V9:X9)</f>
         <v>57.5</v>
       </c>
-      <c r="AC9" s="5">
+      <c r="AC9">
         <f t="shared" si="6"/>
         <v>0.70710678118654757</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="G10" s="5" t="s">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
         <v>164</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10">
         <v>0.9</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10">
         <f t="shared" si="3"/>
         <v>61.700926785780347</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>57.5</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10">
         <f t="shared" si="5"/>
         <v>17.647785859486792</v>
       </c>
-      <c r="U10" s="5" t="s">
+      <c r="U10" t="s">
         <v>177</v>
       </c>
-      <c r="V10" s="5">
+      <c r="V10">
         <v>69.5</v>
       </c>
-      <c r="W10" s="5">
+      <c r="W10">
         <v>68</v>
       </c>
-      <c r="X10" s="5">
+      <c r="X10">
         <v>68.5</v>
       </c>
-      <c r="AB10" s="5">
+      <c r="AB10">
         <f>AVERAGE(V10:X10)</f>
         <v>68.666666666666671</v>
       </c>
-      <c r="AC10" s="5">
+      <c r="AC10">
         <f t="shared" si="6"/>
         <v>0.62360956446232352</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="G11" s="5" t="s">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
         <v>165</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11">
         <v>0.95</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11">
         <f t="shared" si="3"/>
         <v>74.568376181668043</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11">
         <f t="shared" si="0"/>
         <v>68.666666666666671</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11">
         <f t="shared" si="5"/>
         <v>34.830175199457727</v>
       </c>
-      <c r="U11" s="5" t="s">
+      <c r="U11" t="s">
         <v>178</v>
       </c>
-      <c r="V11" s="5">
+      <c r="V11">
         <v>81</v>
       </c>
-      <c r="W11" s="5">
+      <c r="W11">
         <v>79.5</v>
       </c>
-      <c r="X11" s="5">
+      <c r="X11">
         <v>80.5</v>
       </c>
-      <c r="AB11" s="5">
+      <c r="AB11">
         <f>AVERAGE(V11:X11)</f>
         <v>80.333333333333329</v>
       </c>
-      <c r="AC11" s="5">
+      <c r="AC11">
         <f t="shared" si="6"/>
         <v>0.62360956446232352</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="G12" s="5" t="s">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
         <v>166</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12">
         <v>0.98</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12">
         <f t="shared" si="3"/>
         <v>82.954581742542928</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12">
         <f t="shared" si="0"/>
         <v>80.333333333333329</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12">
         <f t="shared" si="5"/>
         <v>6.8709432227838541</v>
       </c>
-      <c r="U12" s="5" t="s">
+      <c r="U12" t="s">
         <v>179</v>
       </c>
-      <c r="V12" s="5">
+      <c r="V12">
         <v>90.56</v>
       </c>
-      <c r="W12" s="5">
+      <c r="W12">
         <v>87</v>
       </c>
-      <c r="X12" s="5">
+      <c r="X12">
         <v>89</v>
       </c>
-      <c r="AB12" s="5">
+      <c r="AB12">
         <f t="shared" ref="AB12:AB15" si="7">AVERAGE(V12:Y12)</f>
         <v>88.853333333333339</v>
       </c>
-      <c r="AC12" s="5">
+      <c r="AC12">
         <f t="shared" si="6"/>
         <v>1.4570594436131372</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="G13" s="5" t="s">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
         <v>167</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13">
         <v>1</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13">
         <f>B2</f>
         <v>88.853333333333339</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13">
         <f>B2</f>
         <v>88.853333333333339</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U13" s="5" t="s">
+      <c r="U13" t="s">
         <v>183</v>
       </c>
-      <c r="V13" s="5">
+      <c r="V13">
         <v>36</v>
       </c>
-      <c r="W13" s="5">
+      <c r="W13">
         <v>42</v>
       </c>
-      <c r="X13" s="5">
+      <c r="X13">
         <v>36.5</v>
       </c>
-      <c r="Y13" s="5">
+      <c r="Y13">
         <v>44</v>
       </c>
-      <c r="AB13" s="5">
+      <c r="AB13">
         <f t="shared" si="7"/>
         <v>39.625</v>
       </c>
-      <c r="AC13" s="5">
+      <c r="AC13">
         <f>_xlfn.STDEV.P(V13:Y13)</f>
         <v>3.4528068292332832</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="G14" s="5" t="s">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
         <v>181</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14">
         <v>0.78</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14">
         <f>$B$1+($B$2-$B$1)*$B$3*H14/(1-(1-$B$3)*H14)</f>
         <v>35.474257177878989</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14">
         <f>AB13</f>
         <v>39.625</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14">
         <f t="shared" si="5"/>
         <v>17.228665975389092</v>
       </c>
-      <c r="U14" s="5" t="s">
+      <c r="U14" t="s">
         <v>185</v>
       </c>
-      <c r="V14" s="5">
+      <c r="V14">
         <v>53</v>
       </c>
-      <c r="W14" s="5">
+      <c r="W14">
         <v>53.5</v>
       </c>
-      <c r="X14" s="5">
+      <c r="X14">
         <v>51.5</v>
       </c>
-      <c r="AB14" s="5">
+      <c r="AB14">
         <f t="shared" si="7"/>
         <v>52.666666666666664</v>
       </c>
-      <c r="AC14" s="5">
+      <c r="AC14">
         <f>_xlfn.STDEV.P(V14:Y14)</f>
         <v>0.84983658559879749</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="G15" s="5" t="s">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
         <v>181</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15">
         <v>0.84499999999999997</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15">
         <f t="shared" ref="I15:I18" si="8">$B$1+($B$2-$B$1)*$B$3*H15/(1-(1-$B$3)*H15)</f>
         <v>48.945168734982282</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15">
         <f>AB14</f>
         <v>52.666666666666664</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15">
         <f t="shared" si="5"/>
         <v>13.849546855531136</v>
       </c>
-      <c r="U15" s="5" t="s">
+      <c r="U15" t="s">
         <v>184</v>
       </c>
-      <c r="V15" s="5">
+      <c r="V15">
         <v>66</v>
       </c>
-      <c r="W15" s="5">
+      <c r="W15">
         <v>67</v>
       </c>
-      <c r="X15" s="5">
+      <c r="X15">
         <v>65</v>
       </c>
-      <c r="AB15" s="5">
+      <c r="AB15">
         <f t="shared" si="7"/>
         <v>66</v>
       </c>
-      <c r="AC15" s="5">
+      <c r="AC15">
         <f>_xlfn.STDEV.P(V15:Y15)</f>
         <v>0.81649658092772603</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="G16" s="5" t="s">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
         <v>181</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16">
         <v>0.9</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16">
         <f t="shared" si="8"/>
         <v>61.700926785780347</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16">
         <f>AB15</f>
         <v>66</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16">
         <f t="shared" si="5"/>
         <v>18.482030501220901</v>
       </c>
     </row>
-    <row r="17" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G17" s="5" t="s">
+    <row r="17" spans="7:19" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
         <v>181</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17">
         <v>0.97499999999999998</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17">
         <f t="shared" si="8"/>
         <v>81.519419048841343</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17">
         <v>84.234999999999999</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17">
         <f t="shared" si="5"/>
         <v>7.3743799022957557</v>
       </c>
     </row>
-    <row r="18" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G18" s="5" t="s">
+    <row r="18" spans="7:19" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
         <v>180</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18">
         <v>0.91600000000000004</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18">
         <f t="shared" si="8"/>
         <v>65.677348381278762</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18">
         <v>70</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18">
         <f t="shared" si="5"/>
         <v>18.685317016833341</v>
       </c>
     </row>
-    <row r="19" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G19" s="5" t="s">
+    <row r="19" spans="7:19" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
         <v>182</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19">
         <v>0.7</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19">
         <f t="shared" ref="I19" si="9">$B$1+($B$2-$B$1)*$B$3*H19/(1-(1-$B$3)*H19)</f>
         <v>20.885182029621525</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19">
         <v>27.3</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19">
         <f t="shared" si="5"/>
         <v>41.149889593090627</v>
       </c>
     </row>
-    <row r="20" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="K20" s="5">
+    <row r="20" spans="7:19" x14ac:dyDescent="0.2">
+      <c r="K20">
         <f>SUM(K3:K19)</f>
         <v>277.57575532739418</v>
       </c>
     </row>
-    <row r="24" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="S24" s="5">
+    <row r="24" spans="7:19" x14ac:dyDescent="0.2">
+      <c r="S24">
         <f>36+42+36.5+44</f>
         <v>158.5</v>
       </c>
     </row>
-    <row r="25" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="S25" s="5">
+    <row r="25" spans="7:19" x14ac:dyDescent="0.2">
+      <c r="S25">
         <f>S24/4</f>
         <v>39.625</v>
       </c>
